--- a/Base_ODS.xlsx
+++ b/Base_ODS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="1320">
   <si>
     <t>DEPARTAMENTO</t>
   </si>
@@ -583,739 +583,739 @@
     <t>REGIÓN NATURAL</t>
   </si>
   <si>
+    <t>Sin ponderar: Número de mujeres y/o niños entrevistadas(os) en campo.</t>
+  </si>
+  <si>
+    <t>Total15</t>
+  </si>
+  <si>
+    <t>17.557005070153973</t>
+  </si>
+  <si>
+    <t>16.754613582542174</t>
+  </si>
+  <si>
+    <t>17.531293139104267</t>
+  </si>
+  <si>
+    <t>5.9571239918593655</t>
+  </si>
+  <si>
+    <t>18.079741694195128</t>
+  </si>
+  <si>
+    <t>24.413735758634822</t>
+  </si>
+  <si>
+    <t>5.6150229633088795</t>
+  </si>
+  <si>
+    <t>5.9172344148818308</t>
+  </si>
+  <si>
+    <t>13.496209540047888</t>
+  </si>
+  <si>
+    <t>31.545433861543792</t>
+  </si>
+  <si>
+    <t>19.254857847020325</t>
+  </si>
+  <si>
+    <t>5.8682197419093303</t>
+  </si>
+  <si>
+    <t>17.465527519299005</t>
+  </si>
+  <si>
+    <t>13.352869448908983</t>
+  </si>
+  <si>
+    <t>9.506669531876673</t>
+  </si>
+  <si>
+    <t>4.6059428961155193</t>
+  </si>
+  <si>
+    <t>25.22953540509425</t>
+  </si>
+  <si>
+    <t>8.5662784785806423</t>
+  </si>
+  <si>
+    <t>2.1669900184470965</t>
+  </si>
+  <si>
+    <t>18.000638345840279</t>
+  </si>
+  <si>
+    <t>12.985936359269823</t>
+  </si>
+  <si>
+    <t>8.5633447217372947</t>
+  </si>
+  <si>
+    <t>14.233621431010615</t>
+  </si>
+  <si>
+    <t>24.764892928773858</t>
+  </si>
+  <si>
+    <t>10.786866414152735</t>
+  </si>
+  <si>
+    <t>16.844859874312558</t>
+  </si>
+  <si>
+    <t>21.158209358117862</t>
+  </si>
+  <si>
+    <t>1.9498064097138592</t>
+  </si>
+  <si>
+    <t>12.083445373684643</t>
+  </si>
+  <si>
+    <t>14.436245764146324</t>
+  </si>
+  <si>
+    <t>7.2949358998618221</t>
+  </si>
+  <si>
+    <t>17.371534618352111</t>
+  </si>
+  <si>
+    <t>7.1982407393209575</t>
+  </si>
+  <si>
+    <t>Total 2/</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.2000000000000002</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1.1000000000000001</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_1996</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_2000</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_2006</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_2008</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_2009</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_2010</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_2011</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_2012</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_2013</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_2014</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_2015</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_2016</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_2017</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_2018</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_2019</t>
+  </si>
+  <si>
+    <t>ODS3_1_2_2020</t>
+  </si>
+  <si>
+    <t>ODS3_2_1_2008</t>
+  </si>
+  <si>
+    <t>ODS3_2_1_2014</t>
+  </si>
+  <si>
+    <t>ODS3_2_1_2017</t>
+  </si>
+  <si>
+    <t>ODS3_2_1_2018</t>
+  </si>
+  <si>
+    <t>ODS3_2_1_2020</t>
+  </si>
+  <si>
+    <t>ODS3_2_1_2000</t>
+  </si>
+  <si>
+    <t>ODS3_2_1_2011</t>
+  </si>
+  <si>
+    <t>ODS3_2_1_2009</t>
+  </si>
+  <si>
+    <t>ODS3_2_1_2010</t>
+  </si>
+  <si>
+    <t>ODS3_2_1_2012</t>
+  </si>
+  <si>
+    <t>ODS3_2_1_2013</t>
+  </si>
+  <si>
+    <t>ODS3_2_1_2015</t>
+  </si>
+  <si>
+    <t>ODS3_2_2_1992</t>
+  </si>
+  <si>
+    <t>ODS3_2_2_1996</t>
+  </si>
+  <si>
+    <t>ODS3_2_2_2000</t>
+  </si>
+  <si>
+    <t>ODS3_2_2_2006</t>
+  </si>
+  <si>
+    <t>ODS3_2_2_2008</t>
+  </si>
+  <si>
+    <t>ODS3_2_2_2009</t>
+  </si>
+  <si>
+    <t>ODS3_2_2_2010</t>
+  </si>
+  <si>
+    <t>ODS3_2_2_2011</t>
+  </si>
+  <si>
+    <t>ODS3_2_2_2012</t>
+  </si>
+  <si>
+    <t>ODS3_2_2_2013</t>
+  </si>
+  <si>
+    <t>ODS3_2_2_2014</t>
+  </si>
+  <si>
+    <t>ODS3_2_2_2015</t>
+  </si>
+  <si>
+    <t>ODS3_2_2_2017</t>
+  </si>
+  <si>
+    <t>ODS3_2_2_2018</t>
+  </si>
+  <si>
+    <t>ODS3_3_1_2013</t>
+  </si>
+  <si>
+    <t>ODS3_3_1_2014</t>
+  </si>
+  <si>
+    <t>ODS3_3_1_2015</t>
+  </si>
+  <si>
+    <t>ODS3_3_1_2016</t>
+  </si>
+  <si>
+    <t>ODS3_3_1_2017</t>
+  </si>
+  <si>
+    <t>ODS3_3_1_2018</t>
+  </si>
+  <si>
+    <t>ODS3_3_1_2019</t>
+  </si>
+  <si>
+    <t>ODS3_3_1_2020</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_1998</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_1999</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2000</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2001</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2002</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2003</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2004</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2005</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2006</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2007</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2008</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2009</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2010</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2011</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2012</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2013</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2014</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2015</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2016</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2017</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2018</t>
+  </si>
+  <si>
+    <t>ODS3_3_2_2019</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1982</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1983</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1984</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1985</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1986</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1987</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1988</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1989</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1990</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1991</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1992</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1993</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1994</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1995</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1996</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1997</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1998</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_1999</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2000</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2001</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2002</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2003</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2004</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2005</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2006</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2007</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2008</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2009</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2010</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2011</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2012</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2013</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2014</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2015</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2016</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2017</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2018</t>
+  </si>
+  <si>
+    <t>ODS3_3_3_2019</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2002</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2003</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2004</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2005</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2006</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2007</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2008</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2009</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2010</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2011</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2012</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2013</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2014</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2015</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2016</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2017</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2018</t>
+  </si>
+  <si>
+    <t>ODS3_3_4_2019</t>
+  </si>
+  <si>
+    <t>ODS3_5_2_2014</t>
+  </si>
+  <si>
+    <t>ODS3_5_2_2015</t>
+  </si>
+  <si>
+    <t>ODS3_5_2_2016</t>
+  </si>
+  <si>
+    <t>ODS3_5_2_2017</t>
+  </si>
+  <si>
+    <t>ODS3_5_2_2018</t>
+  </si>
+  <si>
+    <t>ODS3_5_2_2019</t>
+  </si>
+  <si>
+    <t>ODS3_6_1_2011</t>
+  </si>
+  <si>
+    <t>ODS3_6_1_2012</t>
+  </si>
+  <si>
+    <t>ODS3_6_1_2013</t>
+  </si>
+  <si>
+    <t>ODS3_6_1_2014</t>
+  </si>
+  <si>
+    <t>ODS3_6_1_2015</t>
+  </si>
+  <si>
+    <t>ODS3_6_1_2016</t>
+  </si>
+  <si>
+    <t>ODS3_6_1_2017</t>
+  </si>
+  <si>
+    <t>ODS3_7_1_2008</t>
+  </si>
+  <si>
+    <t>ODS3_7_1_2009</t>
+  </si>
+  <si>
+    <t>ODS3_7_1_2010</t>
+  </si>
+  <si>
+    <t>ODS3_7_1_2011</t>
+  </si>
+  <si>
+    <t>ODS3_7_1_2012</t>
+  </si>
+  <si>
+    <t>ODS3_7_1_2013</t>
+  </si>
+  <si>
+    <t>ODS3_7_1_2014</t>
+  </si>
+  <si>
+    <t>ODS3_7_1_2015</t>
+  </si>
+  <si>
+    <t>ODS3_7_1_2016</t>
+  </si>
+  <si>
+    <t>ODS3_7_1_2017</t>
+  </si>
+  <si>
+    <t>ODS3_7_1_2018</t>
+  </si>
+  <si>
+    <t>ODS3_7_1_2019</t>
+  </si>
+  <si>
+    <t>ODS3_7_1_2020</t>
+  </si>
+  <si>
+    <t>ODS3_8_1_2008</t>
+  </si>
+  <si>
+    <t>ODS3_8_1_2009</t>
+  </si>
+  <si>
+    <t>ODS3_8_1_2010</t>
+  </si>
+  <si>
+    <t>ODS3_8_1_2011</t>
+  </si>
+  <si>
+    <t>ODS3_8_1_2012</t>
+  </si>
+  <si>
+    <t>ODS3_8_1_2013</t>
+  </si>
+  <si>
+    <t>ODS3_8_1_2014</t>
+  </si>
+  <si>
+    <t>ODS3_8_1_2015</t>
+  </si>
+  <si>
+    <t>ODS3_8_1_2016</t>
+  </si>
+  <si>
+    <t>ODS3_8_1_2017</t>
+  </si>
+  <si>
+    <t>ODS3_8_1_2018</t>
+  </si>
+  <si>
+    <t>ODS3_8_1_2019</t>
+  </si>
+  <si>
+    <t>ODS3_8_1_2020</t>
+  </si>
+  <si>
+    <t>ODS3_a_1_2014</t>
+  </si>
+  <si>
+    <t>ODS3_a_1_2015</t>
+  </si>
+  <si>
+    <t>ODS3_a_1_2016</t>
+  </si>
+  <si>
+    <t>ODS3_a_1_2017</t>
+  </si>
+  <si>
+    <t>ODS3_a_1_2018</t>
+  </si>
+  <si>
+    <t>ODS3_a_1_2019</t>
+  </si>
+  <si>
+    <t>ODS3_a_1_2020</t>
+  </si>
+  <si>
+    <t>ODS3_c_1_2010</t>
+  </si>
+  <si>
+    <t>ODS3_c_1_2011</t>
+  </si>
+  <si>
+    <t>ODS3_c_1_2012</t>
+  </si>
+  <si>
+    <t>ODS3_c_1_2013</t>
+  </si>
+  <si>
+    <t>ODS3_c_1_2014</t>
+  </si>
+  <si>
+    <t>ODS3_c_1_2015</t>
+  </si>
+  <si>
+    <t>ODS3_c_1_2016</t>
+  </si>
+  <si>
+    <t>ODS3_c_1_2017</t>
+  </si>
+  <si>
+    <t>ODS3_c_1_2018</t>
+  </si>
+  <si>
+    <t>ODS3_c_1_2019</t>
+  </si>
+  <si>
+    <t>ODS3_c_1_2020</t>
+  </si>
+  <si>
+    <t>Lugar no  especificado</t>
+  </si>
+  <si>
     <t>Resto Costa</t>
-  </si>
-  <si>
-    <t>Sin ponderar: Número de mujeres y/o niños entrevistadas(os) en campo.</t>
-  </si>
-  <si>
-    <t>Total15</t>
-  </si>
-  <si>
-    <t>17.557005070153973</t>
-  </si>
-  <si>
-    <t>16.754613582542174</t>
-  </si>
-  <si>
-    <t>17.531293139104267</t>
-  </si>
-  <si>
-    <t>5.9571239918593655</t>
-  </si>
-  <si>
-    <t>18.079741694195128</t>
-  </si>
-  <si>
-    <t>24.413735758634822</t>
-  </si>
-  <si>
-    <t>5.6150229633088795</t>
-  </si>
-  <si>
-    <t>5.9172344148818308</t>
-  </si>
-  <si>
-    <t>13.496209540047888</t>
-  </si>
-  <si>
-    <t>31.545433861543792</t>
-  </si>
-  <si>
-    <t>19.254857847020325</t>
-  </si>
-  <si>
-    <t>5.8682197419093303</t>
-  </si>
-  <si>
-    <t>17.465527519299005</t>
-  </si>
-  <si>
-    <t>13.352869448908983</t>
-  </si>
-  <si>
-    <t>9.506669531876673</t>
-  </si>
-  <si>
-    <t>4.6059428961155193</t>
-  </si>
-  <si>
-    <t>25.22953540509425</t>
-  </si>
-  <si>
-    <t>8.5662784785806423</t>
-  </si>
-  <si>
-    <t>2.1669900184470965</t>
-  </si>
-  <si>
-    <t>18.000638345840279</t>
-  </si>
-  <si>
-    <t>12.985936359269823</t>
-  </si>
-  <si>
-    <t>8.5633447217372947</t>
-  </si>
-  <si>
-    <t>14.233621431010615</t>
-  </si>
-  <si>
-    <t>24.764892928773858</t>
-  </si>
-  <si>
-    <t>10.786866414152735</t>
-  </si>
-  <si>
-    <t>16.844859874312558</t>
-  </si>
-  <si>
-    <t>21.158209358117862</t>
-  </si>
-  <si>
-    <t>1.9498064097138592</t>
-  </si>
-  <si>
-    <t>12.083445373684643</t>
-  </si>
-  <si>
-    <t>14.436245764146324</t>
-  </si>
-  <si>
-    <t>7.2949358998618221</t>
-  </si>
-  <si>
-    <t>17.371534618352111</t>
-  </si>
-  <si>
-    <t>7.1982407393209575</t>
-  </si>
-  <si>
-    <t>Total 2/</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2.2000000000000002</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1.1000000000000001</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_1996</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_2000</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_2006</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_2008</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_2009</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_2010</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_2011</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_2012</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_2013</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_2014</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_2015</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_2016</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_2017</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_2018</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_2019</t>
-  </si>
-  <si>
-    <t>ODS3_1_2_2020</t>
-  </si>
-  <si>
-    <t>ODS3_2_1_2008</t>
-  </si>
-  <si>
-    <t>ODS3_2_1_2014</t>
-  </si>
-  <si>
-    <t>ODS3_2_1_2017</t>
-  </si>
-  <si>
-    <t>ODS3_2_1_2018</t>
-  </si>
-  <si>
-    <t>ODS3_2_1_2020</t>
-  </si>
-  <si>
-    <t>ODS3_2_1_2000</t>
-  </si>
-  <si>
-    <t>ODS3_2_1_2011</t>
-  </si>
-  <si>
-    <t>ODS3_2_1_2009</t>
-  </si>
-  <si>
-    <t>ODS3_2_1_2010</t>
-  </si>
-  <si>
-    <t>ODS3_2_1_2012</t>
-  </si>
-  <si>
-    <t>ODS3_2_1_2013</t>
-  </si>
-  <si>
-    <t>ODS3_2_1_2015</t>
-  </si>
-  <si>
-    <t>ODS3_2_2_1992</t>
-  </si>
-  <si>
-    <t>ODS3_2_2_1996</t>
-  </si>
-  <si>
-    <t>ODS3_2_2_2000</t>
-  </si>
-  <si>
-    <t>ODS3_2_2_2006</t>
-  </si>
-  <si>
-    <t>ODS3_2_2_2008</t>
-  </si>
-  <si>
-    <t>ODS3_2_2_2009</t>
-  </si>
-  <si>
-    <t>ODS3_2_2_2010</t>
-  </si>
-  <si>
-    <t>ODS3_2_2_2011</t>
-  </si>
-  <si>
-    <t>ODS3_2_2_2012</t>
-  </si>
-  <si>
-    <t>ODS3_2_2_2013</t>
-  </si>
-  <si>
-    <t>ODS3_2_2_2014</t>
-  </si>
-  <si>
-    <t>ODS3_2_2_2015</t>
-  </si>
-  <si>
-    <t>ODS3_2_2_2017</t>
-  </si>
-  <si>
-    <t>ODS3_2_2_2018</t>
-  </si>
-  <si>
-    <t>ODS3_3_1_2013</t>
-  </si>
-  <si>
-    <t>ODS3_3_1_2014</t>
-  </si>
-  <si>
-    <t>ODS3_3_1_2015</t>
-  </si>
-  <si>
-    <t>ODS3_3_1_2016</t>
-  </si>
-  <si>
-    <t>ODS3_3_1_2017</t>
-  </si>
-  <si>
-    <t>ODS3_3_1_2018</t>
-  </si>
-  <si>
-    <t>ODS3_3_1_2019</t>
-  </si>
-  <si>
-    <t>ODS3_3_1_2020</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_1998</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_1999</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2000</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2001</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2002</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2003</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2004</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2005</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2006</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2007</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2008</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2009</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2010</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2011</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2012</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2013</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2014</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2015</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2016</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2017</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2018</t>
-  </si>
-  <si>
-    <t>ODS3_3_2_2019</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1982</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1983</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1984</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1985</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1986</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1987</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1988</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1989</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1990</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1991</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1992</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1993</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1994</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1995</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1996</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1997</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1998</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_1999</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2000</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2001</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2002</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2003</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2004</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2005</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2006</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2007</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2008</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2009</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2010</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2011</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2012</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2013</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2014</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2015</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2016</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2017</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2018</t>
-  </si>
-  <si>
-    <t>ODS3_3_3_2019</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2002</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2003</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2004</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2005</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2006</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2007</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2008</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2009</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2010</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2011</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2012</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2013</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2014</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2015</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2016</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2017</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2018</t>
-  </si>
-  <si>
-    <t>ODS3_3_4_2019</t>
-  </si>
-  <si>
-    <t>ODS3_5_2_2014</t>
-  </si>
-  <si>
-    <t>ODS3_5_2_2015</t>
-  </si>
-  <si>
-    <t>ODS3_5_2_2016</t>
-  </si>
-  <si>
-    <t>ODS3_5_2_2017</t>
-  </si>
-  <si>
-    <t>ODS3_5_2_2018</t>
-  </si>
-  <si>
-    <t>ODS3_5_2_2019</t>
-  </si>
-  <si>
-    <t>ODS3_6_1_2011</t>
-  </si>
-  <si>
-    <t>ODS3_6_1_2012</t>
-  </si>
-  <si>
-    <t>ODS3_6_1_2013</t>
-  </si>
-  <si>
-    <t>ODS3_6_1_2014</t>
-  </si>
-  <si>
-    <t>ODS3_6_1_2015</t>
-  </si>
-  <si>
-    <t>ODS3_6_1_2016</t>
-  </si>
-  <si>
-    <t>ODS3_6_1_2017</t>
-  </si>
-  <si>
-    <t>ODS3_7_1_2008</t>
-  </si>
-  <si>
-    <t>ODS3_7_1_2009</t>
-  </si>
-  <si>
-    <t>ODS3_7_1_2010</t>
-  </si>
-  <si>
-    <t>ODS3_7_1_2011</t>
-  </si>
-  <si>
-    <t>ODS3_7_1_2012</t>
-  </si>
-  <si>
-    <t>ODS3_7_1_2013</t>
-  </si>
-  <si>
-    <t>ODS3_7_1_2014</t>
-  </si>
-  <si>
-    <t>ODS3_7_1_2015</t>
-  </si>
-  <si>
-    <t>ODS3_7_1_2016</t>
-  </si>
-  <si>
-    <t>ODS3_7_1_2017</t>
-  </si>
-  <si>
-    <t>ODS3_7_1_2018</t>
-  </si>
-  <si>
-    <t>ODS3_7_1_2019</t>
-  </si>
-  <si>
-    <t>ODS3_7_1_2020</t>
-  </si>
-  <si>
-    <t>ODS3_8_1_2008</t>
-  </si>
-  <si>
-    <t>ODS3_8_1_2009</t>
-  </si>
-  <si>
-    <t>ODS3_8_1_2010</t>
-  </si>
-  <si>
-    <t>ODS3_8_1_2011</t>
-  </si>
-  <si>
-    <t>ODS3_8_1_2012</t>
-  </si>
-  <si>
-    <t>ODS3_8_1_2013</t>
-  </si>
-  <si>
-    <t>ODS3_8_1_2014</t>
-  </si>
-  <si>
-    <t>ODS3_8_1_2015</t>
-  </si>
-  <si>
-    <t>ODS3_8_1_2016</t>
-  </si>
-  <si>
-    <t>ODS3_8_1_2017</t>
-  </si>
-  <si>
-    <t>ODS3_8_1_2018</t>
-  </si>
-  <si>
-    <t>ODS3_8_1_2019</t>
-  </si>
-  <si>
-    <t>ODS3_8_1_2020</t>
-  </si>
-  <si>
-    <t>ODS3_a_1_2014</t>
-  </si>
-  <si>
-    <t>ODS3_a_1_2015</t>
-  </si>
-  <si>
-    <t>ODS3_a_1_2016</t>
-  </si>
-  <si>
-    <t>ODS3_a_1_2017</t>
-  </si>
-  <si>
-    <t>ODS3_a_1_2018</t>
-  </si>
-  <si>
-    <t>ODS3_a_1_2019</t>
-  </si>
-  <si>
-    <t>ODS3_a_1_2020</t>
-  </si>
-  <si>
-    <t>ODS3_c_1_2010</t>
-  </si>
-  <si>
-    <t>ODS3_c_1_2011</t>
-  </si>
-  <si>
-    <t>ODS3_c_1_2012</t>
-  </si>
-  <si>
-    <t>ODS3_c_1_2013</t>
-  </si>
-  <si>
-    <t>ODS3_c_1_2014</t>
-  </si>
-  <si>
-    <t>ODS3_c_1_2015</t>
-  </si>
-  <si>
-    <t>ODS3_c_1_2016</t>
-  </si>
-  <si>
-    <t>ODS3_c_1_2017</t>
-  </si>
-  <si>
-    <t>ODS3_c_1_2018</t>
-  </si>
-  <si>
-    <t>ODS3_c_1_2019</t>
-  </si>
-  <si>
-    <t>ODS3_c_1_2020</t>
-  </si>
-  <si>
-    <t>Lugar no  especificado</t>
   </si>
   <si>
     <t>72.8</t>
@@ -9638,16 +9638,16 @@
         <v>17.9</v>
       </c>
       <c r="AB8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AD8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AE8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF8" t="s">
         <v>233</v>
@@ -9784,19 +9784,19 @@
         <v>16.2</v>
       </c>
       <c r="AB10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AF10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG10" t="n">
         <v>0.2</v>
@@ -9877,19 +9877,19 @@
         <v>16.1</v>
       </c>
       <c r="AB11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD11" t="s">
         <v>226</v>
       </c>
-      <c r="AD11" t="s">
-        <v>227</v>
-      </c>
       <c r="AE11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AG11" t="n">
         <v>0.3</v>
@@ -10076,19 +10076,19 @@
         <v>6.1</v>
       </c>
       <c r="AB14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AD14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG14" t="n">
         <v>0.3</v>
@@ -10169,16 +10169,16 @@
         <v>17.3</v>
       </c>
       <c r="AB15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AD15" t="s">
         <v>232</v>
       </c>
       <c r="AE15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF15" t="s">
         <v>232</v>
@@ -10262,16 +10262,16 @@
         <v>25.6</v>
       </c>
       <c r="AB16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AC16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AD16" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AE16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF16" t="s">
         <v>233</v>
@@ -10341,19 +10341,19 @@
         <v>3.8</v>
       </c>
       <c r="AB17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AC17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AD17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AE17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG17" t="n">
         <v>0.0</v>
@@ -10423,37 +10423,69 @@
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
+      <c r="R18" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="S18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="U18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>7.5</v>
+      </c>
       <c r="AB18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC18" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="AD18" t="s">
-        <v>86</v>
+        <v>232</v>
       </c>
       <c r="AE18" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="AF18" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18"/>
-      <c r="AK18"/>
-      <c r="AL18"/>
+        <v>225</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.3</v>
+      </c>
       <c r="AM18" t="n">
         <v>0.3685174986561858</v>
       </c>
@@ -10673,19 +10705,19 @@
         <v>14.0</v>
       </c>
       <c r="AB21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AC21" t="s">
         <v>230</v>
       </c>
       <c r="AD21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AE21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG21" t="n">
         <v>0.3</v>
@@ -11084,19 +11116,19 @@
         <v>30.7</v>
       </c>
       <c r="AB28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC28" t="s">
         <v>231</v>
       </c>
       <c r="AD28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="n">
         <v>0.2</v>
@@ -11177,19 +11209,19 @@
         <v>19.4</v>
       </c>
       <c r="AB29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC29" t="s">
         <v>232</v>
       </c>
       <c r="AD29" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AE29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG29" t="n">
         <v>0.9</v>
@@ -11270,19 +11302,19 @@
         <v>5.5</v>
       </c>
       <c r="AB30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AC30" t="s">
         <v>233</v>
       </c>
       <c r="AD30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG30" t="n">
         <v>0.6</v>
@@ -11363,19 +11395,19 @@
         <v>18.7</v>
       </c>
       <c r="AB31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AC31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AD31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AE31" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF31" t="s">
         <v>227</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>228</v>
       </c>
       <c r="AG31" t="n">
         <v>1.0</v>
@@ -11509,13 +11541,13 @@
         <v>12.7</v>
       </c>
       <c r="AB33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AC33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AD33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AE33" t="s">
         <v>233</v>
@@ -11602,19 +11634,19 @@
         <v>11.2</v>
       </c>
       <c r="AB34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AC34" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AD34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AE34" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF34" t="s">
         <v>245</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>246</v>
       </c>
       <c r="AG34" t="n">
         <v>2.6</v>
@@ -11796,10 +11828,10 @@
         <v>232</v>
       </c>
       <c r="AE37" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AG37" t="n">
         <v>0.2</v>
@@ -11898,7 +11930,7 @@
         <v>4.9</v>
       </c>
       <c r="AB38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AC38" t="s">
         <v>232</v>
@@ -11907,7 +11939,7 @@
         <v>232</v>
       </c>
       <c r="AE38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF38" t="s">
         <v>233</v>
@@ -11991,19 +12023,19 @@
         <v>23.7</v>
       </c>
       <c r="AB39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AC39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AD39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AE39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG39" t="n">
         <v>1.0</v>
@@ -12084,19 +12116,19 @@
         <v>8.4</v>
       </c>
       <c r="AB40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AD40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AE40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG40" t="n">
         <v>0.9</v>
@@ -12230,16 +12262,16 @@
         <v>2.5</v>
       </c>
       <c r="AB42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AC42" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AD42" t="s">
         <v>232</v>
       </c>
       <c r="AE42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF42" t="s">
         <v>232</v>
@@ -12588,19 +12620,19 @@
         <v>16.0</v>
       </c>
       <c r="AB48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AC48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AD48" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AE48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF48" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AG48" t="n">
         <v>0.3</v>
@@ -12681,19 +12713,19 @@
         <v>13.0</v>
       </c>
       <c r="AB49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AC49" t="s">
         <v>233</v>
       </c>
       <c r="AD49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG49" t="n">
         <v>0.4</v>
@@ -12816,16 +12848,16 @@
         <v>86</v>
       </c>
       <c r="AC51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AD51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AE51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG51" t="n">
         <v>0.2</v>
@@ -12890,19 +12922,19 @@
         <v>9.5</v>
       </c>
       <c r="AB52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AC52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AD52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AE52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG52" t="n">
         <v>0.2</v>
@@ -12983,19 +13015,19 @@
         <v>12.6</v>
       </c>
       <c r="AB53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD53" t="s">
         <v>232</v>
       </c>
       <c r="AE53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG53" t="n">
         <v>0.0</v>
@@ -13127,531 +13159,525 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>188</v>
-      </c>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
+        <v>72</v>
+      </c>
+      <c r="B56" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="G56" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J56" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K56" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="N56" t="n">
+        <v>25.4</v>
+      </c>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="S56" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="T56" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="U56" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="V56" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="W56" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="X56" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
       <c r="AB56" t="s">
         <v>86</v>
       </c>
       <c r="AC56" t="s">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="AD56" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c r="AE56" t="s">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="AF56" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>0.3</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
+      <c r="AL56"/>
       <c r="AM56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="C57" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H57" t="n">
         <v>31.1</v>
       </c>
-      <c r="C57" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="D57" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E57" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F57" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="G57" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="H57" t="n">
-        <v>28.5</v>
-      </c>
       <c r="I57" t="n">
-        <v>29.7</v>
+        <v>33.2</v>
       </c>
       <c r="J57" t="n">
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="K57" t="n">
-        <v>26.0</v>
+        <v>28.1</v>
       </c>
       <c r="L57" t="n">
-        <v>25.1</v>
+        <v>27.8</v>
       </c>
       <c r="M57" t="n">
-        <v>25.3</v>
+        <v>26.2</v>
       </c>
       <c r="N57" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="O57"/>
+        <v>26.2</v>
+      </c>
+      <c r="O57" t="n">
+        <v>45.7</v>
+      </c>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
-      <c r="V57"/>
-      <c r="W57"/>
-      <c r="X57"/>
-      <c r="Y57"/>
-      <c r="Z57"/>
-      <c r="AA57"/>
+      <c r="R57" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="S57" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="U57" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="W57" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="X57" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>24.5</v>
+      </c>
       <c r="AB57" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="AC57" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="AD57" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="AE57" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="AF57" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG57"/>
-      <c r="AH57"/>
-      <c r="AI57"/>
-      <c r="AJ57"/>
-      <c r="AK57"/>
-      <c r="AL57"/>
-      <c r="AM57"/>
+        <v>225</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0.40716122648087066</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="C58" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="E58" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="F58" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="G58" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="H58" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="J58" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K58" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="L58" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="M58" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="N58" t="n">
-        <v>26.2</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
       <c r="O58" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="P58"/>
-      <c r="Q58"/>
+        <v>25.1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>28.2</v>
+      </c>
       <c r="R58" t="n">
-        <v>38.8</v>
+        <v>26.8</v>
       </c>
       <c r="S58" t="n">
-        <v>37.0</v>
+        <v>22.8</v>
       </c>
       <c r="T58" t="n">
-        <v>31.9</v>
+        <v>16.8</v>
       </c>
       <c r="U58" t="n">
-        <v>32.3</v>
+        <v>15.5</v>
       </c>
       <c r="V58" t="n">
-        <v>28.8</v>
+        <v>16.0</v>
       </c>
       <c r="W58" t="n">
-        <v>27.7</v>
+        <v>16.3</v>
       </c>
       <c r="X58" t="n">
-        <v>26.5</v>
+        <v>12.1</v>
       </c>
       <c r="Y58" t="n">
-        <v>25.3</v>
+        <v>12.1</v>
       </c>
       <c r="Z58" t="n">
-        <v>25.7</v>
+        <v>10.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>24.5</v>
+        <v>11.5</v>
       </c>
       <c r="AB58" t="s">
         <v>214</v>
       </c>
       <c r="AC58" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AD58" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AE58" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="AF58" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="AG58" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI58" t="n">
         <v>0.7</v>
       </c>
-      <c r="AH58" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0.9</v>
-      </c>
       <c r="AJ58" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AK58" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL58" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL58" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AM58" t="n">
-        <v>0.40716122648087066</v>
+        <v>0.45661577794692726</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="P59" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="Q59" t="n">
+        <v>75</v>
+      </c>
+      <c r="B59" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="E59" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G59" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="I59" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K59" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="L59" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="M59" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="S59" t="n">
         <v>28.2</v>
       </c>
-      <c r="R59" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="S59" t="n">
-        <v>22.8</v>
-      </c>
       <c r="T59" t="n">
-        <v>16.8</v>
+        <v>21.6</v>
       </c>
       <c r="U59" t="n">
-        <v>15.5</v>
+        <v>24.1</v>
       </c>
       <c r="V59" t="n">
-        <v>16.0</v>
+        <v>20.7</v>
       </c>
       <c r="W59" t="n">
-        <v>16.3</v>
+        <v>20.3</v>
       </c>
       <c r="X59" t="n">
-        <v>12.1</v>
+        <v>19.8</v>
       </c>
       <c r="Y59" t="n">
-        <v>12.1</v>
+        <v>18.0</v>
       </c>
       <c r="Z59" t="n">
-        <v>10.5</v>
+        <v>17.2</v>
       </c>
       <c r="AA59" t="n">
-        <v>11.5</v>
+        <v>17.7</v>
       </c>
       <c r="AB59" t="s">
         <v>215</v>
       </c>
       <c r="AC59" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AD59" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AE59" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="AF59" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AG59" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK59" t="n">
         <v>0.9</v>
       </c>
-      <c r="AH59" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AL59" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AM59" t="n">
-        <v>0.45661577794692726</v>
+        <v>0.7322434556522363</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60" t="n">
-        <v>31.0</v>
+        <v>35.1</v>
       </c>
       <c r="C60" t="n">
-        <v>32.1</v>
+        <v>37.8</v>
       </c>
       <c r="D60" t="n">
-        <v>34.9</v>
+        <v>40.9</v>
       </c>
       <c r="E60" t="n">
-        <v>32.8</v>
+        <v>40.3</v>
       </c>
       <c r="F60" t="n">
-        <v>30.5</v>
+        <v>38.1</v>
       </c>
       <c r="G60" t="n">
-        <v>26.1</v>
+        <v>28.7</v>
       </c>
       <c r="H60" t="n">
-        <v>25.4</v>
+        <v>26.6</v>
       </c>
       <c r="I60" t="n">
-        <v>24.4</v>
+        <v>27.2</v>
       </c>
       <c r="J60" t="n">
-        <v>21.8</v>
+        <v>22.8</v>
       </c>
       <c r="K60" t="n">
-        <v>23.4</v>
+        <v>24.9</v>
       </c>
       <c r="L60" t="n">
-        <v>23.8</v>
+        <v>25.3</v>
       </c>
       <c r="M60" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="N60" t="n">
-        <v>22.3</v>
+        <v>23.6</v>
       </c>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="S60" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="T60" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="U60" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="V60" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="W60" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="X60" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
       <c r="AB60" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="AC60" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="AD60" t="s">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="AE60" t="s">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c r="AF60" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>0.7322434556522363</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+      <c r="AL60"/>
+      <c r="AM60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" t="n">
-        <v>35.1</v>
+        <v>27.5</v>
       </c>
       <c r="C61" t="n">
-        <v>37.8</v>
+        <v>27.2</v>
       </c>
       <c r="D61" t="n">
-        <v>40.9</v>
+        <v>29.9</v>
       </c>
       <c r="E61" t="n">
-        <v>40.3</v>
+        <v>26.8</v>
       </c>
       <c r="F61" t="n">
-        <v>38.1</v>
+        <v>24.5</v>
       </c>
       <c r="G61" t="n">
-        <v>28.7</v>
+        <v>24.3</v>
       </c>
       <c r="H61" t="n">
-        <v>26.6</v>
+        <v>24.5</v>
       </c>
       <c r="I61" t="n">
-        <v>27.2</v>
+        <v>22.4</v>
       </c>
       <c r="J61" t="n">
-        <v>22.8</v>
+        <v>21.1</v>
       </c>
       <c r="K61" t="n">
-        <v>24.9</v>
+        <v>22.4</v>
       </c>
       <c r="L61" t="n">
-        <v>25.3</v>
+        <v>22.9</v>
       </c>
       <c r="M61" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="N61" t="n">
-        <v>23.6</v>
+        <v>21.5</v>
       </c>
       <c r="O61"/>
       <c r="P61"/>
@@ -13691,238 +13717,238 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B62" t="n">
-        <v>27.5</v>
+        <v>38.7</v>
       </c>
       <c r="C62" t="n">
-        <v>27.2</v>
+        <v>41.6</v>
       </c>
       <c r="D62" t="n">
-        <v>29.9</v>
+        <v>40.7</v>
       </c>
       <c r="E62" t="n">
-        <v>26.8</v>
+        <v>36.6</v>
       </c>
       <c r="F62" t="n">
-        <v>24.5</v>
+        <v>36.0</v>
       </c>
       <c r="G62" t="n">
-        <v>24.3</v>
+        <v>35.9</v>
       </c>
       <c r="H62" t="n">
-        <v>24.5</v>
+        <v>33.6</v>
       </c>
       <c r="I62" t="n">
-        <v>22.4</v>
+        <v>35.4</v>
       </c>
       <c r="J62" t="n">
-        <v>21.1</v>
+        <v>31.1</v>
       </c>
       <c r="K62" t="n">
-        <v>22.4</v>
+        <v>30.5</v>
       </c>
       <c r="L62" t="n">
-        <v>22.9</v>
+        <v>28.6</v>
       </c>
       <c r="M62" t="n">
-        <v>22.1</v>
+        <v>29.4</v>
       </c>
       <c r="N62" t="n">
-        <v>21.5</v>
+        <v>29.3</v>
       </c>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-      <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
-      <c r="Z62"/>
-      <c r="AA62"/>
+      <c r="R62" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="T62" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="U62" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="V62" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="W62" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="X62" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>20.3</v>
+      </c>
       <c r="AB62" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="AC62" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="AD62" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="AE62" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="AF62" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG62"/>
-      <c r="AH62"/>
-      <c r="AI62"/>
-      <c r="AJ62"/>
-      <c r="AK62"/>
-      <c r="AL62"/>
-      <c r="AM62"/>
+        <v>229</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0.41971453324978136</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" t="n">
-        <v>38.7</v>
+        <v>43.9</v>
       </c>
       <c r="C63" t="n">
-        <v>41.6</v>
+        <v>46.8</v>
       </c>
       <c r="D63" t="n">
-        <v>40.7</v>
+        <v>45.1</v>
       </c>
       <c r="E63" t="n">
-        <v>36.6</v>
+        <v>41.1</v>
       </c>
       <c r="F63" t="n">
-        <v>36.0</v>
+        <v>39.8</v>
       </c>
       <c r="G63" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="H63" t="n">
-        <v>33.6</v>
+        <v>34.1</v>
       </c>
       <c r="I63" t="n">
-        <v>35.4</v>
+        <v>36.4</v>
       </c>
       <c r="J63" t="n">
-        <v>31.1</v>
+        <v>29.9</v>
       </c>
       <c r="K63" t="n">
-        <v>30.5</v>
+        <v>29.7</v>
       </c>
       <c r="L63" t="n">
-        <v>28.6</v>
+        <v>29.8</v>
       </c>
       <c r="M63" t="n">
-        <v>29.4</v>
+        <v>28.5</v>
       </c>
       <c r="N63" t="n">
-        <v>29.3</v>
+        <v>28.0</v>
       </c>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
-      <c r="R63" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="S63" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="T63" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="U63" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="V63" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="W63" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="X63" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>20.3</v>
-      </c>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
       <c r="AB63" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="AC63" t="s">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="AD63" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="AE63" t="s">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="AF63" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>0.41971453324978136</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" t="n">
-        <v>43.9</v>
+        <v>32.1</v>
       </c>
       <c r="C64" t="n">
-        <v>46.8</v>
+        <v>35.4</v>
       </c>
       <c r="D64" t="n">
-        <v>45.1</v>
+        <v>35.6</v>
       </c>
       <c r="E64" t="n">
-        <v>41.1</v>
+        <v>31.6</v>
       </c>
       <c r="F64" t="n">
-        <v>39.8</v>
+        <v>32.0</v>
       </c>
       <c r="G64" t="n">
-        <v>36.2</v>
+        <v>35.5</v>
       </c>
       <c r="H64" t="n">
-        <v>34.1</v>
+        <v>33.2</v>
       </c>
       <c r="I64" t="n">
-        <v>36.4</v>
+        <v>34.5</v>
       </c>
       <c r="J64" t="n">
-        <v>29.9</v>
+        <v>32.2</v>
       </c>
       <c r="K64" t="n">
-        <v>29.7</v>
+        <v>31.3</v>
       </c>
       <c r="L64" t="n">
-        <v>29.8</v>
+        <v>27.6</v>
       </c>
       <c r="M64" t="n">
-        <v>28.5</v>
+        <v>30.2</v>
       </c>
       <c r="N64" t="n">
-        <v>28.0</v>
+        <v>30.4</v>
       </c>
       <c r="O64"/>
       <c r="P64"/>
@@ -13962,47 +13988,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="D65" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="E65" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F65" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="H65" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="K65" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L65" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="M65" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="N65" t="n">
-        <v>30.4</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
@@ -14041,7 +14041,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
@@ -14056,257 +14056,259 @@
       <c r="L66"/>
       <c r="M66"/>
       <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-      <c r="W66"/>
-      <c r="X66"/>
-      <c r="Y66"/>
-      <c r="Z66"/>
-      <c r="AA66"/>
+      <c r="O66" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="P66" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>2.4</v>
+      </c>
       <c r="AB66" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="AC66" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="AD66" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="AE66" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="AF66" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG66"/>
-      <c r="AH66"/>
-      <c r="AI66"/>
-      <c r="AJ66"/>
-      <c r="AK66"/>
-      <c r="AL66"/>
-      <c r="AM66"/>
+        <v>237</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
+        <v>82</v>
+      </c>
+      <c r="B67" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C67" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="G67" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="H67" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I67" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K67" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L67" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="M67" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="N67" t="n">
+        <v>26.8</v>
+      </c>
       <c r="O67" t="n">
-        <v>6.3</v>
+        <v>28.5</v>
       </c>
       <c r="P67" t="n">
-        <v>6.8</v>
+        <v>27.8</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.1</v>
+        <v>23.8</v>
       </c>
       <c r="R67" t="n">
-        <v>3.0</v>
+        <v>23.2</v>
       </c>
       <c r="S67" t="n">
-        <v>3.7</v>
+        <v>19.5</v>
       </c>
       <c r="T67" t="n">
-        <v>3.1</v>
+        <v>18.1</v>
       </c>
       <c r="U67" t="n">
-        <v>2.9</v>
+        <v>17.5</v>
       </c>
       <c r="V67" t="n">
-        <v>3.7</v>
+        <v>14.6</v>
       </c>
       <c r="W67" t="n">
-        <v>2.6</v>
+        <v>14.4</v>
       </c>
       <c r="X67" t="n">
-        <v>2.3</v>
+        <v>13.1</v>
       </c>
       <c r="Y67" t="n">
-        <v>3.2</v>
+        <v>12.9</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.3</v>
+        <v>12.2</v>
       </c>
       <c r="AA67" t="n">
-        <v>2.4</v>
+        <v>12.2</v>
       </c>
       <c r="AB67" t="s">
         <v>218</v>
       </c>
       <c r="AC67" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AD67" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="AE67" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AF67" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="AG67" t="n">
         <v>0.6</v>
       </c>
       <c r="AH67" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="AI67" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AJ67" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AK67" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AL67" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="AM67" t="n">
-        <v>0.0</v>
+        <v>0.4508657028700548</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C68" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F68" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="G68" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="H68" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="I68" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J68" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K68" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="L68" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="M68" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="N68" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="O68" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="P68" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="R68" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="S68" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="T68" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="U68" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="V68" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="W68" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="X68" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>12.2</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
       <c r="AB68" t="s">
         <v>219</v>
       </c>
       <c r="AC68" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="AD68" t="s">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="AE68" t="s">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c r="AF68" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>0.4</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="AG68"/>
+      <c r="AH68"/>
+      <c r="AI68"/>
+      <c r="AJ68"/>
+      <c r="AK68"/>
+      <c r="AL68"/>
       <c r="AM68" t="n">
-        <v>0.4508657028700548</v>
+        <v>0.848035786795806</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="B69"/>
       <c r="C69"/>
@@ -14321,47 +14323,85 @@
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-      <c r="X69"/>
-      <c r="Y69"/>
-      <c r="Z69"/>
-      <c r="AA69"/>
+      <c r="O69" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="P69" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="S69" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="U69" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="W69" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="X69" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>7.5</v>
+      </c>
       <c r="AB69" t="s">
         <v>220</v>
       </c>
       <c r="AC69" t="s">
-        <v>86</v>
+        <v>238</v>
       </c>
       <c r="AD69" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="AE69" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="AF69" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG69"/>
-      <c r="AH69"/>
-      <c r="AI69"/>
-      <c r="AJ69"/>
-      <c r="AK69"/>
-      <c r="AL69"/>
+        <v>229</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>0.4</v>
+      </c>
       <c r="AM69" t="n">
-        <v>0.848035786795806</v>
+        <v>0.8827252939611554</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70"/>
       <c r="C70"/>
@@ -14377,43 +14417,43 @@
       <c r="M70"/>
       <c r="N70"/>
       <c r="O70" t="n">
-        <v>12.2</v>
+        <v>30.5</v>
       </c>
       <c r="P70" t="n">
-        <v>12.6</v>
+        <v>32.4</v>
       </c>
       <c r="Q70" t="n">
-        <v>13.5</v>
+        <v>29.9</v>
       </c>
       <c r="R70" t="n">
-        <v>12.8</v>
+        <v>31.6</v>
       </c>
       <c r="S70" t="n">
-        <v>11.0</v>
+        <v>31.4</v>
       </c>
       <c r="T70" t="n">
-        <v>10.1</v>
+        <v>24.7</v>
       </c>
       <c r="U70" t="n">
-        <v>9.1</v>
+        <v>24.5</v>
       </c>
       <c r="V70" t="n">
-        <v>8.3</v>
+        <v>26.1</v>
       </c>
       <c r="W70" t="n">
-        <v>9.1</v>
+        <v>24.0</v>
       </c>
       <c r="X70" t="n">
-        <v>7.4</v>
+        <v>24.8</v>
       </c>
       <c r="Y70" t="n">
-        <v>8.2</v>
+        <v>19.4</v>
       </c>
       <c r="Z70" t="n">
-        <v>8.1</v>
+        <v>17.8</v>
       </c>
       <c r="AA70" t="n">
-        <v>7.5</v>
+        <v>17.7</v>
       </c>
       <c r="AB70" t="s">
         <v>221</v>
@@ -14422,243 +14462,203 @@
         <v>239</v>
       </c>
       <c r="AD70" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="AE70" t="s">
         <v>236</v>
       </c>
       <c r="AF70" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AG70" t="n">
         <v>0.9</v>
       </c>
       <c r="AH70" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="AI70" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AJ70" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AK70" t="n">
         <v>0.7</v>
       </c>
       <c r="AL70" t="n">
-        <v>0.4</v>
+        <v>1.0</v>
       </c>
       <c r="AM70" t="n">
-        <v>0.8827252939611554</v>
+        <v>1.4356516731173874</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
+        <v>85</v>
+      </c>
+      <c r="B71" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="H71" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="I71" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="K71" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="L71" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="N71" t="n">
+        <v>27.0</v>
+      </c>
       <c r="O71" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="P71" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>29.9</v>
-      </c>
+        <v>15.6</v>
+      </c>
+      <c r="P71"/>
+      <c r="Q71"/>
       <c r="R71" t="n">
-        <v>31.6</v>
+        <v>14.1</v>
       </c>
       <c r="S71" t="n">
-        <v>31.4</v>
+        <v>10.1</v>
       </c>
       <c r="T71" t="n">
-        <v>24.7</v>
+        <v>10.5</v>
       </c>
       <c r="U71" t="n">
-        <v>24.5</v>
+        <v>10.3</v>
       </c>
       <c r="V71" t="n">
-        <v>26.1</v>
+        <v>8.3</v>
       </c>
       <c r="W71" t="n">
-        <v>24.0</v>
+        <v>9.2</v>
       </c>
       <c r="X71" t="n">
-        <v>24.8</v>
+        <v>7.9</v>
       </c>
       <c r="Y71" t="n">
-        <v>19.4</v>
+        <v>8.2</v>
       </c>
       <c r="Z71" t="n">
-        <v>17.8</v>
+        <v>7.3</v>
       </c>
       <c r="AA71" t="n">
-        <v>17.7</v>
+        <v>7.6</v>
       </c>
       <c r="AB71" t="s">
         <v>222</v>
       </c>
       <c r="AC71" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="AD71" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="AE71" t="s">
         <v>237</v>
       </c>
       <c r="AF71" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AG71" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="AI71" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK71" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AL71" t="n">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="AM71" t="n">
-        <v>1.4356516731173874</v>
+        <v>0.4677017391089271</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="C72" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="E72" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="H72" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="I72" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="J72" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K72" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="L72" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="N72" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>15.6</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="R72" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="S72" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="T72" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="U72" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="V72" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="W72" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="X72" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>7.6</v>
-      </c>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
       <c r="AB72" t="s">
         <v>223</v>
       </c>
       <c r="AC72" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="AD72" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c r="AE72" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="AF72" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>0.4677017391089271</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="AG72"/>
+      <c r="AH72"/>
+      <c r="AI72"/>
+      <c r="AJ72"/>
+      <c r="AK72"/>
+      <c r="AL72"/>
+      <c r="AM72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -14691,7 +14691,7 @@
       <c r="Z73"/>
       <c r="AA73"/>
       <c r="AB73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC73" t="s">
         <v>86</v>
@@ -14744,7 +14744,7 @@
       <c r="Z74"/>
       <c r="AA74"/>
       <c r="AB74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC74" t="s">
         <v>86</v>
@@ -14797,7 +14797,7 @@
       <c r="Z75"/>
       <c r="AA75"/>
       <c r="AB75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC75" t="s">
         <v>86</v>
@@ -14850,7 +14850,7 @@
       <c r="Z76"/>
       <c r="AA76"/>
       <c r="AB76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC76" t="s">
         <v>86</v>
@@ -14903,7 +14903,7 @@
       <c r="Z77"/>
       <c r="AA77"/>
       <c r="AB77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC77" t="s">
         <v>86</v>
@@ -14956,7 +14956,7 @@
       <c r="Z78"/>
       <c r="AA78"/>
       <c r="AB78" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC78" t="s">
         <v>86</v>
@@ -15009,7 +15009,7 @@
       <c r="Z79"/>
       <c r="AA79"/>
       <c r="AB79" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC79" t="s">
         <v>86</v>
@@ -15062,7 +15062,7 @@
       <c r="Z80"/>
       <c r="AA80"/>
       <c r="AB80" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC80" t="s">
         <v>86</v>
@@ -15115,7 +15115,7 @@
       <c r="Z81"/>
       <c r="AA81"/>
       <c r="AB81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC81" t="s">
         <v>86</v>
@@ -15168,7 +15168,7 @@
       <c r="Z82"/>
       <c r="AA82"/>
       <c r="AB82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC82" t="s">
         <v>86</v>
@@ -15221,7 +15221,7 @@
       <c r="Z83"/>
       <c r="AA83"/>
       <c r="AB83" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC83" t="s">
         <v>86</v>
@@ -15274,7 +15274,7 @@
       <c r="Z84"/>
       <c r="AA84"/>
       <c r="AB84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC84" t="s">
         <v>86</v>
@@ -15327,7 +15327,7 @@
       <c r="Z85"/>
       <c r="AA85"/>
       <c r="AB85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC85" t="s">
         <v>86</v>
@@ -15380,7 +15380,7 @@
       <c r="Z86"/>
       <c r="AA86"/>
       <c r="AB86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC86" t="s">
         <v>86</v>
@@ -15433,7 +15433,7 @@
       <c r="Z87"/>
       <c r="AA87"/>
       <c r="AB87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC87" t="s">
         <v>86</v>
@@ -15486,7 +15486,7 @@
       <c r="Z88"/>
       <c r="AA88"/>
       <c r="AB88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC88" t="s">
         <v>86</v>
@@ -15539,7 +15539,7 @@
       <c r="Z89"/>
       <c r="AA89"/>
       <c r="AB89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC89" t="s">
         <v>86</v>
@@ -15592,7 +15592,7 @@
       <c r="Z90"/>
       <c r="AA90"/>
       <c r="AB90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC90" t="s">
         <v>86</v>
@@ -15645,7 +15645,7 @@
       <c r="Z91"/>
       <c r="AA91"/>
       <c r="AB91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC91" t="s">
         <v>86</v>
@@ -15698,7 +15698,7 @@
       <c r="Z92"/>
       <c r="AA92"/>
       <c r="AB92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC92" t="s">
         <v>86</v>
@@ -15751,7 +15751,7 @@
       <c r="Z93"/>
       <c r="AA93"/>
       <c r="AB93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC93" t="s">
         <v>86</v>
@@ -15804,7 +15804,7 @@
       <c r="Z94"/>
       <c r="AA94"/>
       <c r="AB94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC94" t="s">
         <v>86</v>
@@ -15857,7 +15857,7 @@
       <c r="Z95"/>
       <c r="AA95"/>
       <c r="AB95" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC95" t="s">
         <v>86</v>
@@ -15878,59 +15878,6 @@
       <c r="AK95"/>
       <c r="AL95"/>
       <c r="AM95"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>86</v>
-      </c>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96"/>
-      <c r="M96"/>
-      <c r="N96"/>
-      <c r="O96"/>
-      <c r="P96"/>
-      <c r="Q96"/>
-      <c r="R96"/>
-      <c r="S96"/>
-      <c r="T96"/>
-      <c r="U96"/>
-      <c r="V96"/>
-      <c r="W96"/>
-      <c r="X96"/>
-      <c r="Y96"/>
-      <c r="Z96"/>
-      <c r="AA96"/>
-      <c r="AB96" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC96" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD96" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF96" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG96"/>
-      <c r="AH96"/>
-      <c r="AI96"/>
-      <c r="AJ96"/>
-      <c r="AK96"/>
-      <c r="AL96"/>
-      <c r="AM96"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -15950,559 +15897,559 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" t="s">
         <v>247</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>248</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>249</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>250</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>251</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>252</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>253</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>254</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>255</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>256</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>257</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>258</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>259</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>260</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>261</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>262</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>263</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>264</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>265</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>266</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>267</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>268</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>269</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>270</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>271</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>272</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>273</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>274</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>275</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>276</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>277</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>278</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>279</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>280</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>281</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>282</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>283</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>284</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>285</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>286</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>287</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>288</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>289</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>290</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>291</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>292</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>293</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>294</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>295</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>296</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>297</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>298</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>299</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>300</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>301</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>302</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>303</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>304</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>305</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>306</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>307</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>308</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>309</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>310</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>311</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>312</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>313</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>314</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>315</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>316</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>317</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>318</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>319</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>320</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>321</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>322</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>323</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>324</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>325</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>326</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>327</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>328</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>329</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>330</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>331</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>332</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>333</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>334</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>335</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>336</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>337</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>338</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>339</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>340</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>341</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>342</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>343</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>344</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>345</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>346</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>347</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>348</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>349</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>350</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>351</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>352</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>353</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>354</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>355</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>356</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>357</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>358</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>359</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>360</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>361</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>362</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>363</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>364</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>365</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>366</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>367</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>368</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>369</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>370</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>371</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>372</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>373</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>374</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>375</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>376</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>377</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>378</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>379</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EF1" t="s">
         <v>380</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EG1" t="s">
         <v>381</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EH1" t="s">
         <v>382</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EI1" t="s">
         <v>383</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EJ1" t="s">
         <v>384</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EK1" t="s">
         <v>385</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EL1" t="s">
         <v>386</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EM1" t="s">
         <v>387</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EN1" t="s">
         <v>388</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EO1" t="s">
         <v>389</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EP1" t="s">
         <v>390</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EQ1" t="s">
         <v>391</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ER1" t="s">
         <v>392</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ES1" t="s">
         <v>393</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ET1" t="s">
         <v>394</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EU1" t="s">
         <v>395</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EV1" t="s">
         <v>396</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EW1" t="s">
         <v>397</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EX1" t="s">
         <v>398</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EY1" t="s">
         <v>399</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EZ1" t="s">
         <v>400</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FA1" t="s">
         <v>401</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FB1" t="s">
         <v>402</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FC1" t="s">
         <v>403</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FD1" t="s">
         <v>404</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FE1" t="s">
         <v>405</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FF1" t="s">
         <v>406</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FG1" t="s">
         <v>407</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FH1" t="s">
         <v>408</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FI1" t="s">
         <v>409</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FJ1" t="s">
         <v>410</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FK1" t="s">
         <v>411</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FL1" t="s">
         <v>412</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FM1" t="s">
         <v>413</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FN1" t="s">
         <v>414</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FO1" t="s">
         <v>415</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FP1" t="s">
         <v>416</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FQ1" t="s">
         <v>417</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FR1" t="s">
         <v>418</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FS1" t="s">
         <v>419</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FT1" t="s">
         <v>420</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FU1" t="s">
         <v>421</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FV1" t="s">
         <v>422</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FW1" t="s">
         <v>423</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FX1" t="s">
         <v>424</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="FY1" t="s">
         <v>425</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="FZ1" t="s">
         <v>426</v>
       </c>
-      <c r="FZ1" t="s">
+      <c r="GA1" t="s">
         <v>427</v>
       </c>
-      <c r="GA1" t="s">
+      <c r="GB1" t="s">
         <v>428</v>
       </c>
-      <c r="GB1" t="s">
+      <c r="GC1" t="s">
         <v>429</v>
       </c>
-      <c r="GC1" t="s">
+      <c r="GD1" t="s">
         <v>430</v>
-      </c>
-      <c r="GD1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="2">
@@ -16510,7 +16457,7 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
         <v>440</v>
@@ -17004,7 +16951,7 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
         <v>441</v>
@@ -17498,7 +17445,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
         <v>442</v>
@@ -17992,7 +17939,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
         <v>443</v>
@@ -18486,7 +18433,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
         <v>444</v>
@@ -18980,7 +18927,7 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
         <v>445</v>
@@ -19474,31 +19421,31 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K8" t="n">
         <v>99.0</v>
@@ -19522,7 +19469,7 @@
         <v>99.83503951243921</v>
       </c>
       <c r="R8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S8" t="s">
         <v>635</v>
@@ -19537,10 +19484,10 @@
         <v>644</v>
       </c>
       <c r="W8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y8"/>
       <c r="Z8" t="s">
@@ -19974,16 +19921,16 @@
         <v>446</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H9" t="s">
         <v>570</v>
@@ -20264,7 +20211,7 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
         <v>447</v>
@@ -20758,7 +20705,7 @@
         <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C11" t="s">
         <v>448</v>
@@ -21252,7 +21199,7 @@
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
         <v>449</v>
@@ -21746,7 +21693,7 @@
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
         <v>450</v>
@@ -22240,7 +22187,7 @@
         <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C14" t="s">
         <v>451</v>
@@ -22734,7 +22681,7 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
         <v>452</v>
@@ -23228,7 +23175,7 @@
         <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
         <v>453</v>
@@ -23722,31 +23669,31 @@
         <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K17" t="n">
         <v>98.8</v>
@@ -24204,16 +24151,16 @@
         <v>454</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H18" t="s">
         <v>577</v>
@@ -24246,25 +24193,25 @@
         <v>99.71660929728475</v>
       </c>
       <c r="R18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S18" t="s">
         <v>644</v>
       </c>
       <c r="T18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y18"/>
       <c r="Z18" t="s">
@@ -24556,7 +24503,7 @@
         <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
         <v>455</v>
@@ -25047,7 +24994,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -25312,7 +25259,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C21" t="s">
         <v>456</v>
@@ -25806,7 +25753,7 @@
         <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C22" t="s">
         <v>457</v>
@@ -26300,7 +26247,7 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" t="s">
         <v>458</v>
@@ -26794,7 +26741,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C24" t="s">
         <v>459</v>
@@ -27288,31 +27235,31 @@
         <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K25" t="n">
         <v>99.0</v>
@@ -27570,31 +27517,31 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K26" t="n">
         <v>97.4</v>
@@ -27618,25 +27565,25 @@
         <v>99.46334717850249</v>
       </c>
       <c r="R26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S26" t="s">
         <v>448</v>
       </c>
       <c r="T26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y26"/>
       <c r="Z26" t="s">
@@ -27928,7 +27875,7 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C27" t="s">
         <v>449</v>
@@ -28419,7 +28366,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>432</v>
       </c>
       <c r="B28" t="s">
         <v>86</v>
@@ -29054,7 +29001,7 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C30" t="s">
         <v>461</v>
@@ -29554,16 +29501,16 @@
         <v>462</v>
       </c>
       <c r="D31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H31" t="s">
         <v>584</v>
@@ -30390,16 +30337,16 @@
         <v>463</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H34" t="s">
         <v>580</v>
@@ -31220,7 +31167,7 @@
         <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C37" t="s">
         <v>464</v>
@@ -32271,7 +32218,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
@@ -32522,7 +32469,7 @@
         <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C40" t="s">
         <v>466</v>
@@ -33016,7 +32963,7 @@
         <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C41" t="s">
         <v>467</v>
@@ -44488,7 +44435,7 @@
         <v>6.1</v>
       </c>
       <c r="L3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M3" t="s">
         <v>1223</v>
@@ -44497,7 +44444,7 @@
         <v>1227</v>
       </c>
       <c r="O3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P3" t="n">
         <v>1.9</v>
@@ -44512,7 +44459,7 @@
         <v>3.0</v>
       </c>
       <c r="T3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U3" t="s">
         <v>1223</v>
@@ -44521,7 +44468,7 @@
         <v>1227</v>
       </c>
       <c r="W3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X3" t="n">
         <v>1.9</v>
@@ -44609,13 +44556,13 @@
         <v>1222</v>
       </c>
       <c r="M4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P4" t="n">
         <v>1.3</v>
@@ -44633,13 +44580,13 @@
         <v>1222</v>
       </c>
       <c r="U4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X4" t="n">
         <v>1.3</v>
@@ -44724,7 +44671,7 @@
         <v>12.2</v>
       </c>
       <c r="L5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M5" t="s">
         <v>1231</v>
@@ -44748,7 +44695,7 @@
         <v>8.3</v>
       </c>
       <c r="T5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U5" t="s">
         <v>1231</v>
@@ -44845,13 +44792,13 @@
         <v>1170</v>
       </c>
       <c r="M6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P6" t="n">
         <v>4.5</v>
@@ -44869,13 +44816,13 @@
         <v>1170</v>
       </c>
       <c r="U6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X6" t="n">
         <v>4.5</v>
@@ -44969,7 +44916,7 @@
         <v>230</v>
       </c>
       <c r="O7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P7" t="n">
         <v>0.8</v>
@@ -44993,7 +44940,7 @@
         <v>230</v>
       </c>
       <c r="W7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X7" t="n">
         <v>0.8</v>
@@ -45051,13 +44998,13 @@
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8" t="n">
         <v>11.0</v>
@@ -45078,16 +45025,16 @@
         <v>12.1</v>
       </c>
       <c r="L8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P8" t="n">
         <v>0.0</v>
@@ -45102,16 +45049,16 @@
         <v>0.0</v>
       </c>
       <c r="T8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X8" t="n">
         <v>0.0</v>
@@ -45306,7 +45253,7 @@
         <v>15.1</v>
       </c>
       <c r="L10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M10" t="s">
         <v>1232</v>
@@ -45330,7 +45277,7 @@
         <v>1.8</v>
       </c>
       <c r="T10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U10" t="s">
         <v>1232</v>
@@ -45424,7 +45371,7 @@
         <v>12.9</v>
       </c>
       <c r="L11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M11" t="s">
         <v>231</v>
@@ -45448,7 +45395,7 @@
         <v>7.1</v>
       </c>
       <c r="T11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U11" t="s">
         <v>231</v>
@@ -45548,10 +45495,10 @@
         <v>1233</v>
       </c>
       <c r="N12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P12" t="n">
         <v>1.3</v>
@@ -45572,10 +45519,10 @@
         <v>1233</v>
       </c>
       <c r="V12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X12" t="n">
         <v>1.3</v>
@@ -46017,13 +45964,13 @@
         <v>1228</v>
       </c>
       <c r="M16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P16" t="n">
         <v>0.0</v>
@@ -46041,13 +45988,13 @@
         <v>1228</v>
       </c>
       <c r="U16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X16" t="n">
         <v>0.0</v>
@@ -46105,13 +46052,13 @@
       </c>
       <c r="B17"/>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F17" t="n">
         <v>12.4</v>
@@ -46223,13 +46170,13 @@
       </c>
       <c r="B18"/>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F18" t="n">
         <v>12.3</v>
@@ -46250,16 +46197,16 @@
         <v>9.6</v>
       </c>
       <c r="L18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P18" t="n">
         <v>0.0</v>
@@ -46274,16 +46221,16 @@
         <v>2.3</v>
       </c>
       <c r="T18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X18" t="n">
         <v>0.0</v>
@@ -46298,16 +46245,16 @@
         <v>2.3</v>
       </c>
       <c r="AB18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AC18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AD18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AE18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF18" t="n">
         <v>31.3</v>
@@ -46394,7 +46341,7 @@
         <v>10.0</v>
       </c>
       <c r="L19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M19" t="s">
         <v>1236</v>
@@ -46418,7 +46365,7 @@
         <v>1.9</v>
       </c>
       <c r="T19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U19" t="s">
         <v>1236</v>
@@ -46512,16 +46459,16 @@
         <v>11.4</v>
       </c>
       <c r="L20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P20" t="n">
         <v>0.0</v>
@@ -46536,16 +46483,16 @@
         <v>0.0</v>
       </c>
       <c r="T20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X20" t="n">
         <v>0.0</v>
@@ -46636,10 +46583,10 @@
         <v>1237</v>
       </c>
       <c r="N21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P21" t="n">
         <v>5.0</v>
@@ -46660,10 +46607,10 @@
         <v>1237</v>
       </c>
       <c r="V21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X21" t="n">
         <v>5.0</v>
@@ -46748,10 +46695,10 @@
         <v>9.1</v>
       </c>
       <c r="L22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s">
         <v>1244</v>
@@ -46772,10 +46719,10 @@
         <v>0.0</v>
       </c>
       <c r="T22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V22" t="s">
         <v>1244</v>
@@ -46866,7 +46813,7 @@
         <v>13.9</v>
       </c>
       <c r="L23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s">
         <v>230</v>
@@ -46890,7 +46837,7 @@
         <v>7.7</v>
       </c>
       <c r="T23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U23" t="s">
         <v>230</v>
@@ -46957,13 +46904,13 @@
       </c>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F24" t="n">
         <v>12.6</v>
@@ -46984,16 +46931,16 @@
         <v>12.0</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P24" t="n">
         <v>7.3</v>
@@ -47008,16 +46955,16 @@
         <v>12.7</v>
       </c>
       <c r="T24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X24" t="n">
         <v>7.3</v>
@@ -47032,16 +46979,16 @@
         <v>12.7</v>
       </c>
       <c r="AB24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AC24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AD24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AE24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF24" t="n">
         <v>33.3</v>
@@ -47102,16 +47049,16 @@
         <v>12.0</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P25" t="n">
         <v>0.0</v>
@@ -47126,16 +47073,16 @@
         <v>3.7</v>
       </c>
       <c r="T25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X25" t="n">
         <v>0.0</v>
@@ -47453,10 +47400,10 @@
         <v>1221</v>
       </c>
       <c r="M28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O28" t="s">
         <v>1221</v>
@@ -47477,10 +47424,10 @@
         <v>1221</v>
       </c>
       <c r="U28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W28" t="s">
         <v>1221</v>
@@ -47788,13 +47735,13 @@
         <v>7.3</v>
       </c>
       <c r="L31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O31" t="s">
         <v>1231</v>
@@ -47812,13 +47759,13 @@
         <v>3.6</v>
       </c>
       <c r="T31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W31" t="s">
         <v>1231</v>
@@ -48052,16 +47999,16 @@
         <v>9.8</v>
       </c>
       <c r="L33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P33" t="n">
         <v>8.3</v>
@@ -48076,16 +48023,16 @@
         <v>7.7</v>
       </c>
       <c r="T33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X33" t="n">
         <v>8.3</v>
@@ -48170,10 +48117,10 @@
         <v>6.2</v>
       </c>
       <c r="L34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N34" t="s">
         <v>1244</v>
@@ -48194,10 +48141,10 @@
         <v>5.9</v>
       </c>
       <c r="T34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V34" t="s">
         <v>1244</v>

--- a/Base_ODS.xlsx
+++ b/Base_ODS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="1326">
   <si>
     <t>DEPARTAMENTO</t>
   </si>
@@ -1219,46 +1219,46 @@
     <t>ODS3_7_1_2020</t>
   </si>
   <si>
-    <t>...2</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
+    <t>ODS3_7_2_...2</t>
+  </si>
+  <si>
+    <t>ODS3_7_2_1992</t>
+  </si>
+  <si>
+    <t>ODS3_7_2_1996</t>
+  </si>
+  <si>
+    <t>ODS3_7_2_2000</t>
+  </si>
+  <si>
+    <t>ODS3_7_2_2009</t>
+  </si>
+  <si>
+    <t>ODS3_7_2_2011</t>
+  </si>
+  <si>
+    <t>ODS3_7_2_2013</t>
+  </si>
+  <si>
+    <t>ODS3_7_2_2014</t>
+  </si>
+  <si>
+    <t>ODS3_7_2_2015</t>
+  </si>
+  <si>
+    <t>ODS3_7_2_2016</t>
+  </si>
+  <si>
+    <t>ODS3_7_2_2017</t>
+  </si>
+  <si>
+    <t>ODS3_7_2_2018</t>
+  </si>
+  <si>
+    <t>ODS3_7_2_2019</t>
+  </si>
+  <si>
+    <t>ODS3_7_2_2020</t>
   </si>
   <si>
     <t>ODS3_8_1_2008</t>
@@ -3440,30 +3440,6 @@
   </si>
   <si>
     <t>ODS5_2_1_2019</t>
-  </si>
-  <si>
-    <t>ODS5_5_1_1983</t>
-  </si>
-  <si>
-    <t>ODS5_5_1_1995</t>
-  </si>
-  <si>
-    <t>ODS5_5_1_1999</t>
-  </si>
-  <si>
-    <t>ODS5_5_1_2003</t>
-  </si>
-  <si>
-    <t>ODS5_5_1_2007</t>
-  </si>
-  <si>
-    <t>ODS5_5_1_2011</t>
-  </si>
-  <si>
-    <t>ODS5_5_1_2015</t>
-  </si>
-  <si>
-    <t>ODS5_5_1_2019</t>
   </si>
   <si>
     <t>ODS5_5_2_1983</t>
@@ -45077,30 +45053,6 @@
       <c r="AN1" t="s">
         <v>1169</v>
       </c>
-      <c r="AO1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>1177</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -45108,13 +45060,13 @@
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="D2" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="E2" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="F2" t="n">
         <v>12.5</v>
@@ -45135,16 +45087,16 @@
         <v>9.0</v>
       </c>
       <c r="L2" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="M2" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="N2" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="O2" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="P2" t="n">
         <v>6.0</v>
@@ -45159,66 +45111,42 @@
         <v>6.0</v>
       </c>
       <c r="T2" t="s">
-        <v>1235</v>
+        <v>1203</v>
       </c>
       <c r="U2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V2" t="s">
-        <v>1244</v>
+        <v>782</v>
       </c>
       <c r="W2" t="s">
-        <v>1244</v>
+        <v>1297</v>
       </c>
       <c r="X2" t="n">
-        <v>6.0</v>
+        <v>27.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.6</v>
+        <v>26.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.8</v>
+        <v>28.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>1251</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>782</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="AI2" t="n">
         <v>28.7</v>
       </c>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
       <c r="AJ2"/>
       <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2"/>
       <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -45226,13 +45154,13 @@
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="D3" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="E3" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="F3" t="n">
         <v>14.4</v>
@@ -45256,10 +45184,10 @@
         <v>237</v>
       </c>
       <c r="M3" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="N3" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="O3" t="s">
         <v>245</v>
@@ -45277,66 +45205,42 @@
         <v>3.0</v>
       </c>
       <c r="T3" t="s">
-        <v>237</v>
+        <v>1255</v>
       </c>
       <c r="U3" t="s">
-        <v>1237</v>
+        <v>1268</v>
       </c>
       <c r="V3" t="s">
-        <v>1241</v>
+        <v>1278</v>
       </c>
       <c r="W3" t="s">
-        <v>245</v>
+        <v>1298</v>
       </c>
       <c r="X3" t="n">
-        <v>1.9</v>
+        <v>27.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.3</v>
+        <v>27.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.5</v>
+        <v>30.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>1286</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>1306</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="AI3" t="n">
         <v>29.6</v>
       </c>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
       <c r="AJ3"/>
       <c r="AK3"/>
       <c r="AL3"/>
       <c r="AM3"/>
       <c r="AN3"/>
-      <c r="AO3"/>
-      <c r="AP3"/>
-      <c r="AQ3"/>
-      <c r="AR3"/>
-      <c r="AS3"/>
-      <c r="AT3"/>
-      <c r="AU3"/>
-      <c r="AV3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -45344,13 +45248,13 @@
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="D4" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="E4" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="F4" t="n">
         <v>21.9</v>
@@ -45371,7 +45275,7 @@
         <v>14.0</v>
       </c>
       <c r="L4" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="M4" t="s">
         <v>241</v>
@@ -45395,66 +45299,42 @@
         <v>2.4</v>
       </c>
       <c r="T4" t="s">
-        <v>1236</v>
+        <v>1245</v>
       </c>
       <c r="U4" t="s">
-        <v>241</v>
+        <v>1260</v>
       </c>
       <c r="V4" t="s">
-        <v>238</v>
+        <v>1279</v>
       </c>
       <c r="W4" t="s">
-        <v>238</v>
+        <v>1299</v>
       </c>
       <c r="X4" t="n">
-        <v>1.3</v>
+        <v>24.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.3</v>
+        <v>25.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.1</v>
+        <v>24.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>1268</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>1287</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>1307</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="AI4" t="n">
         <v>25.8</v>
       </c>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
       <c r="AJ4"/>
       <c r="AK4"/>
       <c r="AL4"/>
       <c r="AM4"/>
       <c r="AN4"/>
-      <c r="AO4"/>
-      <c r="AP4"/>
-      <c r="AQ4"/>
-      <c r="AR4"/>
-      <c r="AS4"/>
-      <c r="AT4"/>
-      <c r="AU4"/>
-      <c r="AV4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -45462,13 +45342,13 @@
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="D5" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="E5" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="F5" t="n">
         <v>16.7</v>
@@ -45492,13 +45372,13 @@
         <v>234</v>
       </c>
       <c r="M5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N5" t="s">
         <v>1245</v>
       </c>
-      <c r="N5" t="s">
-        <v>1253</v>
-      </c>
       <c r="O5" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="P5" t="n">
         <v>4.6</v>
@@ -45513,66 +45393,42 @@
         <v>8.3</v>
       </c>
       <c r="T5" t="s">
-        <v>234</v>
+        <v>1214</v>
       </c>
       <c r="U5" t="s">
-        <v>1245</v>
+        <v>1179</v>
       </c>
       <c r="V5" t="s">
-        <v>1253</v>
+        <v>633</v>
       </c>
       <c r="W5" t="s">
-        <v>1245</v>
+        <v>454</v>
       </c>
       <c r="X5" t="n">
-        <v>4.6</v>
+        <v>31.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.6</v>
+        <v>32.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.7</v>
+        <v>30.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>1222</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>1187</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>633</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>454</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="AI5" t="n">
         <v>34.1</v>
       </c>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
       <c r="AJ5"/>
       <c r="AK5"/>
       <c r="AL5"/>
       <c r="AM5"/>
       <c r="AN5"/>
-      <c r="AO5"/>
-      <c r="AP5"/>
-      <c r="AQ5"/>
-      <c r="AR5"/>
-      <c r="AS5"/>
-      <c r="AT5"/>
-      <c r="AU5"/>
-      <c r="AV5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -45580,10 +45436,10 @@
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="D6" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="E6" t="s">
         <v>641</v>
@@ -45607,7 +45463,7 @@
         <v>11.2</v>
       </c>
       <c r="L6" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="M6" t="s">
         <v>239</v>
@@ -45631,66 +45487,42 @@
         <v>3.4</v>
       </c>
       <c r="T6" t="s">
-        <v>1184</v>
+        <v>1256</v>
       </c>
       <c r="U6" t="s">
-        <v>239</v>
+        <v>1258</v>
       </c>
       <c r="V6" t="s">
-        <v>227</v>
+        <v>1280</v>
       </c>
       <c r="W6" t="s">
-        <v>227</v>
+        <v>1300</v>
       </c>
       <c r="X6" t="n">
-        <v>4.5</v>
+        <v>26.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.7</v>
+        <v>25.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0</v>
+        <v>26.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>1264</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>1266</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>1288</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>1308</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="AI6" t="n">
         <v>28.6</v>
       </c>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
       <c r="AJ6"/>
       <c r="AK6"/>
       <c r="AL6"/>
       <c r="AM6"/>
       <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6"/>
-      <c r="AQ6"/>
-      <c r="AR6"/>
-      <c r="AS6"/>
-      <c r="AT6"/>
-      <c r="AU6"/>
-      <c r="AV6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -45698,13 +45530,13 @@
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="D7" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="E7" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="F7" t="n">
         <v>12.7</v>
@@ -45725,7 +45557,7 @@
         <v>7.7</v>
       </c>
       <c r="L7" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="M7" t="s">
         <v>230</v>
@@ -45749,66 +45581,42 @@
         <v>0.8</v>
       </c>
       <c r="T7" t="s">
-        <v>1237</v>
+        <v>1246</v>
       </c>
       <c r="U7" t="s">
-        <v>230</v>
+        <v>1261</v>
       </c>
       <c r="V7" t="s">
-        <v>230</v>
+        <v>1281</v>
       </c>
       <c r="W7" t="s">
-        <v>240</v>
+        <v>1301</v>
       </c>
       <c r="X7" t="n">
-        <v>0.8</v>
+        <v>23.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8</v>
+        <v>25.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.7</v>
+        <v>25.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>1254</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>1289</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>1309</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="AI7" t="n">
         <v>23.9</v>
       </c>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
       <c r="AJ7"/>
       <c r="AK7"/>
       <c r="AL7"/>
       <c r="AM7"/>
       <c r="AN7"/>
-      <c r="AO7"/>
-      <c r="AP7"/>
-      <c r="AQ7"/>
-      <c r="AR7"/>
-      <c r="AS7"/>
-      <c r="AT7"/>
-      <c r="AU7"/>
-      <c r="AV7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -45867,66 +45675,42 @@
         <v>0.0</v>
       </c>
       <c r="T8" t="s">
-        <v>241</v>
+        <v>1257</v>
       </c>
       <c r="U8" t="s">
-        <v>241</v>
+        <v>1269</v>
       </c>
       <c r="V8" t="s">
-        <v>241</v>
+        <v>1278</v>
       </c>
       <c r="W8" t="s">
-        <v>241</v>
+        <v>1288</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0</v>
+        <v>35.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0</v>
+        <v>28.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.7</v>
+        <v>24.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>1265</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>1277</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>1286</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>1296</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="AI8" t="n">
         <v>28.4</v>
       </c>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
       <c r="AJ8"/>
       <c r="AK8"/>
       <c r="AL8"/>
       <c r="AM8"/>
       <c r="AN8"/>
-      <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -45982,59 +45766,43 @@
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
-      <c r="AB9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
+      <c r="AB9" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>25.8</v>
+      </c>
       <c r="AJ9" t="n">
-        <v>27.5</v>
+        <v>42.2</v>
       </c>
       <c r="AK9" t="n">
-        <v>23.0</v>
+        <v>35.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>34.9</v>
+        <v>37.3</v>
       </c>
       <c r="AM9" t="n">
         <v>34.9</v>
       </c>
       <c r="AN9" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="AV9" t="n">
         <v>36.4</v>
       </c>
     </row>
@@ -46044,7 +45812,7 @@
       </c>
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="D10" t="s">
         <v>802</v>
@@ -46074,13 +45842,13 @@
         <v>236</v>
       </c>
       <c r="M10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="N10" t="s">
         <v>1246</v>
       </c>
-      <c r="N10" t="s">
-        <v>1254</v>
-      </c>
       <c r="O10" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="P10" t="n">
         <v>2.8</v>
@@ -46095,66 +45863,42 @@
         <v>1.8</v>
       </c>
       <c r="T10" t="s">
-        <v>236</v>
+        <v>1258</v>
       </c>
       <c r="U10" t="s">
-        <v>1246</v>
+        <v>1251</v>
       </c>
       <c r="V10" t="s">
-        <v>1254</v>
+        <v>1282</v>
       </c>
       <c r="W10" t="s">
-        <v>1259</v>
+        <v>1287</v>
       </c>
       <c r="X10" t="n">
-        <v>2.8</v>
+        <v>24.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.9</v>
+        <v>25.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.9</v>
+        <v>24.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>1266</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>1259</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>1290</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>1295</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="AI10" t="n">
         <v>25.3</v>
       </c>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
       <c r="AJ10"/>
       <c r="AK10"/>
       <c r="AL10"/>
       <c r="AM10"/>
       <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -46162,13 +45906,13 @@
       </c>
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="D11" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="E11" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="F11" t="n">
         <v>19.1</v>
@@ -46195,10 +45939,10 @@
         <v>231</v>
       </c>
       <c r="N11" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="O11" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="P11" t="n">
         <v>3.2</v>
@@ -46213,66 +45957,42 @@
         <v>7.1</v>
       </c>
       <c r="T11" t="s">
-        <v>241</v>
+        <v>1235</v>
       </c>
       <c r="U11" t="s">
-        <v>231</v>
+        <v>1247</v>
       </c>
       <c r="V11" t="s">
-        <v>1242</v>
+        <v>1283</v>
       </c>
       <c r="W11" t="s">
-        <v>1211</v>
+        <v>1298</v>
       </c>
       <c r="X11" t="n">
-        <v>3.2</v>
+        <v>25.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.5</v>
+        <v>24.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.2</v>
+        <v>23.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>1255</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>1291</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>1306</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="AI11" t="n">
         <v>25.4</v>
       </c>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
       <c r="AJ11"/>
       <c r="AK11"/>
       <c r="AL11"/>
       <c r="AM11"/>
       <c r="AN11"/>
-      <c r="AO11"/>
-      <c r="AP11"/>
-      <c r="AQ11"/>
-      <c r="AR11"/>
-      <c r="AS11"/>
-      <c r="AT11"/>
-      <c r="AU11"/>
-      <c r="AV11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -46280,13 +46000,13 @@
       </c>
       <c r="B12"/>
       <c r="C12" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="D12" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="E12" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="F12" t="n">
         <v>7.1</v>
@@ -46307,10 +46027,10 @@
         <v>8.5</v>
       </c>
       <c r="L12" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="M12" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="N12" t="s">
         <v>241</v>
@@ -46331,66 +46051,42 @@
         <v>3.6</v>
       </c>
       <c r="T12" t="s">
-        <v>1238</v>
+        <v>1243</v>
       </c>
       <c r="U12" t="s">
-        <v>1247</v>
+        <v>1266</v>
       </c>
       <c r="V12" t="s">
-        <v>241</v>
+        <v>1284</v>
       </c>
       <c r="W12" t="s">
-        <v>241</v>
+        <v>1284</v>
       </c>
       <c r="X12" t="n">
-        <v>1.3</v>
+        <v>25.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>24.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.7</v>
+        <v>24.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>1251</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>1274</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>1292</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>1292</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="AI12" t="n">
         <v>26.9</v>
       </c>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
       <c r="AJ12"/>
       <c r="AK12"/>
       <c r="AL12"/>
       <c r="AM12"/>
       <c r="AN12"/>
-      <c r="AO12"/>
-      <c r="AP12"/>
-      <c r="AQ12"/>
-      <c r="AR12"/>
-      <c r="AS12"/>
-      <c r="AT12"/>
-      <c r="AU12"/>
-      <c r="AV12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -46398,13 +46094,13 @@
       </c>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="D13" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="E13" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="F13" t="n">
         <v>12.9</v>
@@ -46425,16 +46121,16 @@
         <v>8.3</v>
       </c>
       <c r="L13" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="M13" t="s">
+        <v>1240</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1240</v>
+      </c>
+      <c r="O13" t="s">
         <v>1248</v>
-      </c>
-      <c r="N13" t="s">
-        <v>1248</v>
-      </c>
-      <c r="O13" t="s">
-        <v>1256</v>
       </c>
       <c r="P13" t="n">
         <v>0.0</v>
@@ -46449,66 +46145,42 @@
         <v>14.0</v>
       </c>
       <c r="T13" t="s">
-        <v>1239</v>
+        <v>1250</v>
       </c>
       <c r="U13" t="s">
-        <v>1248</v>
+        <v>1270</v>
       </c>
       <c r="V13" t="s">
-        <v>1248</v>
+        <v>1285</v>
       </c>
       <c r="W13" t="s">
-        <v>1256</v>
+        <v>1302</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0</v>
+        <v>32.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.0</v>
+        <v>30.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.8</v>
+        <v>35.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>1258</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>1278</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>1293</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>1310</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="AI13" t="n">
         <v>36.5</v>
       </c>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
       <c r="AJ13"/>
       <c r="AK13"/>
       <c r="AL13"/>
       <c r="AM13"/>
       <c r="AN13"/>
-      <c r="AO13"/>
-      <c r="AP13"/>
-      <c r="AQ13"/>
-      <c r="AR13"/>
-      <c r="AS13"/>
-      <c r="AT13"/>
-      <c r="AU13"/>
-      <c r="AV13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -46516,13 +46188,13 @@
       </c>
       <c r="B14"/>
       <c r="C14" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="D14" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="E14" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="F14" t="n">
         <v>13.2</v>
@@ -46543,16 +46215,16 @@
         <v>10.1</v>
       </c>
       <c r="L14" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="M14" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="N14" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="O14" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="P14" t="n">
         <v>3.4</v>
@@ -46567,66 +46239,42 @@
         <v>4.0</v>
       </c>
       <c r="T14" t="s">
-        <v>1240</v>
+        <v>1259</v>
       </c>
       <c r="U14" t="s">
-        <v>1240</v>
+        <v>1182</v>
       </c>
       <c r="V14" t="s">
-        <v>1255</v>
+        <v>1286</v>
       </c>
       <c r="W14" t="s">
-        <v>1260</v>
+        <v>1295</v>
       </c>
       <c r="X14" t="n">
-        <v>3.4</v>
+        <v>29.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.5</v>
+        <v>29.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.5</v>
+        <v>30.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>1267</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>1294</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>1303</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="AI14" t="n">
         <v>33.3</v>
       </c>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
       <c r="AJ14"/>
       <c r="AK14"/>
       <c r="AL14"/>
       <c r="AM14"/>
       <c r="AN14"/>
-      <c r="AO14"/>
-      <c r="AP14"/>
-      <c r="AQ14"/>
-      <c r="AR14"/>
-      <c r="AS14"/>
-      <c r="AT14"/>
-      <c r="AU14"/>
-      <c r="AV14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -46634,13 +46282,13 @@
       </c>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="D15" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="E15" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="F15" t="n">
         <v>9.0</v>
@@ -46661,16 +46309,16 @@
         <v>5.8</v>
       </c>
       <c r="L15" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="M15" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="N15" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="O15" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="P15" t="n">
         <v>1.2</v>
@@ -46685,66 +46333,42 @@
         <v>1.2</v>
       </c>
       <c r="T15" t="s">
-        <v>1241</v>
+        <v>1179</v>
       </c>
       <c r="U15" t="s">
-        <v>1245</v>
+        <v>1271</v>
       </c>
       <c r="V15" t="s">
-        <v>1256</v>
+        <v>1287</v>
       </c>
       <c r="W15" t="s">
-        <v>1256</v>
+        <v>762</v>
       </c>
       <c r="X15" t="n">
-        <v>1.2</v>
+        <v>28.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.7</v>
+        <v>26.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.3</v>
+        <v>29.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>1187</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>1279</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>1295</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>762</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="AI15" t="n">
         <v>29.5</v>
       </c>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
       <c r="AJ15"/>
       <c r="AK15"/>
       <c r="AL15"/>
       <c r="AM15"/>
       <c r="AN15"/>
-      <c r="AO15"/>
-      <c r="AP15"/>
-      <c r="AQ15"/>
-      <c r="AR15"/>
-      <c r="AS15"/>
-      <c r="AT15"/>
-      <c r="AU15"/>
-      <c r="AV15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -46752,13 +46376,13 @@
       </c>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="D16" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="E16" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="F16" t="n">
         <v>9.0</v>
@@ -46779,7 +46403,7 @@
         <v>6.9</v>
       </c>
       <c r="L16" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="M16" t="s">
         <v>241</v>
@@ -46803,66 +46427,42 @@
         <v>5.3</v>
       </c>
       <c r="T16" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="U16" t="s">
-        <v>241</v>
+        <v>1272</v>
       </c>
       <c r="V16" t="s">
-        <v>243</v>
+        <v>449</v>
       </c>
       <c r="W16" t="s">
-        <v>243</v>
+        <v>1303</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0</v>
+        <v>28.9</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.8</v>
+        <v>28.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0</v>
+        <v>29.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>1254</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>1280</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>449</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>1311</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="AI16" t="n">
         <v>34.9</v>
       </c>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
       <c r="AJ16"/>
       <c r="AK16"/>
       <c r="AL16"/>
       <c r="AM16"/>
       <c r="AN16"/>
-      <c r="AO16"/>
-      <c r="AP16"/>
-      <c r="AQ16"/>
-      <c r="AR16"/>
-      <c r="AS16"/>
-      <c r="AT16"/>
-      <c r="AU16"/>
-      <c r="AV16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -46897,16 +46497,16 @@
         <v>9.8</v>
       </c>
       <c r="L17" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="M17" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="N17" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="O17" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="P17" t="n">
         <v>5.4</v>
@@ -46921,66 +46521,42 @@
         <v>10.1</v>
       </c>
       <c r="T17" t="s">
-        <v>1238</v>
+        <v>1260</v>
       </c>
       <c r="U17" t="s">
-        <v>1249</v>
+        <v>1193</v>
       </c>
       <c r="V17" t="s">
-        <v>1190</v>
+        <v>1288</v>
       </c>
       <c r="W17" t="s">
-        <v>1190</v>
+        <v>1304</v>
       </c>
       <c r="X17" t="n">
-        <v>5.4</v>
+        <v>32.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.8</v>
+        <v>30.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>5.4</v>
+        <v>34.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>1268</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>1201</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>1296</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="AI17" t="n">
         <v>36.0</v>
       </c>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
       <c r="AJ17"/>
       <c r="AK17"/>
       <c r="AL17"/>
       <c r="AM17"/>
       <c r="AN17"/>
-      <c r="AO17"/>
-      <c r="AP17"/>
-      <c r="AQ17"/>
-      <c r="AR17"/>
-      <c r="AS17"/>
-      <c r="AT17"/>
-      <c r="AU17"/>
-      <c r="AV17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -47051,78 +46627,54 @@
         <v>228</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0</v>
+        <v>31.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.6</v>
+        <v>30.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.3</v>
+        <v>36.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>228</v>
+        <v>39.7</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>36.3</v>
       </c>
       <c r="AF18" t="n">
-        <v>31.3</v>
+        <v>40.4</v>
       </c>
       <c r="AG18" t="n">
-        <v>30.7</v>
+        <v>33.4</v>
       </c>
       <c r="AH18" t="n">
-        <v>36.2</v>
+        <v>37.0</v>
       </c>
       <c r="AI18" t="n">
-        <v>39.7</v>
+        <v>24.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>28.2</v>
+        <v>44.4</v>
       </c>
       <c r="AK18" t="n">
-        <v>8.5</v>
+        <v>35.6</v>
       </c>
       <c r="AL18" t="n">
-        <v>34.0</v>
+        <v>38.5</v>
       </c>
       <c r="AM18" t="n">
-        <v>36.3</v>
+        <v>39.3</v>
       </c>
       <c r="AN18" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="AV18" t="n">
         <v>37.0</v>
       </c>
     </row>
@@ -47132,13 +46684,13 @@
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="D19" t="s">
         <v>654</v>
       </c>
       <c r="E19" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="F19" t="n">
         <v>11.9</v>
@@ -47162,13 +46714,13 @@
         <v>240</v>
       </c>
       <c r="M19" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="N19" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="O19" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="P19" t="n">
         <v>6.0</v>
@@ -47183,66 +46735,42 @@
         <v>1.9</v>
       </c>
       <c r="T19" t="s">
-        <v>240</v>
+        <v>1261</v>
       </c>
       <c r="U19" t="s">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="V19" t="s">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="W19" t="s">
-        <v>1257</v>
+        <v>650</v>
       </c>
       <c r="X19" t="n">
-        <v>6.0</v>
+        <v>27.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.9</v>
+        <v>28.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.2</v>
+        <v>31.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>1208</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>1277</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>650</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="AI19" t="n">
         <v>31.7</v>
       </c>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
       <c r="AJ19"/>
       <c r="AK19"/>
       <c r="AL19"/>
       <c r="AM19"/>
       <c r="AN19"/>
-      <c r="AO19"/>
-      <c r="AP19"/>
-      <c r="AQ19"/>
-      <c r="AR19"/>
-      <c r="AS19"/>
-      <c r="AT19"/>
-      <c r="AU19"/>
-      <c r="AV19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -47250,13 +46778,13 @@
       </c>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="D20" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="E20" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="F20" t="n">
         <v>16.7</v>
@@ -47301,66 +46829,42 @@
         <v>0.0</v>
       </c>
       <c r="T20" t="s">
-        <v>241</v>
+        <v>1179</v>
       </c>
       <c r="U20" t="s">
-        <v>241</v>
+        <v>1273</v>
       </c>
       <c r="V20" t="s">
-        <v>241</v>
+        <v>1289</v>
       </c>
       <c r="W20" t="s">
-        <v>241</v>
+        <v>1305</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0</v>
+        <v>28.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.1</v>
+        <v>27.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.0</v>
+        <v>32.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>1187</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>1281</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>1297</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>1313</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="AI20" t="n">
         <v>39.7</v>
       </c>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
       <c r="AJ20"/>
       <c r="AK20"/>
       <c r="AL20"/>
       <c r="AM20"/>
       <c r="AN20"/>
-      <c r="AO20"/>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -47368,13 +46872,13 @@
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="D21" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="E21" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="F21" t="n">
         <v>12.1</v>
@@ -47395,10 +46899,10 @@
         <v>6.9</v>
       </c>
       <c r="L21" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M21" t="s">
         <v>1243</v>
-      </c>
-      <c r="M21" t="s">
-        <v>1251</v>
       </c>
       <c r="N21" t="s">
         <v>241</v>
@@ -47419,66 +46923,42 @@
         <v>0.0</v>
       </c>
       <c r="T21" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="U21" t="s">
-        <v>1251</v>
+        <v>1274</v>
       </c>
       <c r="V21" t="s">
-        <v>241</v>
+        <v>474</v>
       </c>
       <c r="W21" t="s">
-        <v>241</v>
+        <v>1293</v>
       </c>
       <c r="X21" t="n">
-        <v>5.0</v>
+        <v>31.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.0</v>
+        <v>28.7</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.3</v>
+        <v>28.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>1267</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>1282</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>474</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>1301</v>
-      </c>
-      <c r="AF21" t="n">
         <v>31.8</v>
       </c>
-      <c r="AG21" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>31.8</v>
-      </c>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
       <c r="AJ21"/>
       <c r="AK21"/>
       <c r="AL21"/>
       <c r="AM21"/>
       <c r="AN21"/>
-      <c r="AO21"/>
-      <c r="AP21"/>
-      <c r="AQ21"/>
-      <c r="AR21"/>
-      <c r="AS21"/>
-      <c r="AT21"/>
-      <c r="AU21"/>
-      <c r="AV21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -47486,13 +46966,13 @@
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="D22" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="E22" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="F22" t="n">
         <v>11.0</v>
@@ -47519,10 +46999,10 @@
         <v>241</v>
       </c>
       <c r="N22" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="O22" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="P22" t="n">
         <v>0.0</v>
@@ -47537,66 +47017,42 @@
         <v>0.0</v>
       </c>
       <c r="T22" t="s">
-        <v>241</v>
+        <v>1262</v>
       </c>
       <c r="U22" t="s">
-        <v>241</v>
+        <v>1174</v>
       </c>
       <c r="V22" t="s">
-        <v>1258</v>
+        <v>1290</v>
       </c>
       <c r="W22" t="s">
-        <v>1259</v>
+        <v>1304</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0</v>
+        <v>24.7</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.1</v>
+        <v>26.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>3.6</v>
+        <v>26.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>1182</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>1298</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="AI22" t="n">
         <v>28.8</v>
       </c>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
       <c r="AJ22"/>
       <c r="AK22"/>
       <c r="AL22"/>
       <c r="AM22"/>
       <c r="AN22"/>
-      <c r="AO22"/>
-      <c r="AP22"/>
-      <c r="AQ22"/>
-      <c r="AR22"/>
-      <c r="AS22"/>
-      <c r="AT22"/>
-      <c r="AU22"/>
-      <c r="AV22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -47604,13 +47060,13 @@
       </c>
       <c r="B23"/>
       <c r="C23" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="D23" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="E23" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="F23" t="n">
         <v>10.3</v>
@@ -47637,10 +47093,10 @@
         <v>230</v>
       </c>
       <c r="N23" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="O23" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="P23" t="n">
         <v>3.2</v>
@@ -47655,66 +47111,42 @@
         <v>7.7</v>
       </c>
       <c r="T23" t="s">
-        <v>241</v>
+        <v>1263</v>
       </c>
       <c r="U23" t="s">
-        <v>230</v>
+        <v>1174</v>
       </c>
       <c r="V23" t="s">
-        <v>1238</v>
+        <v>1291</v>
       </c>
       <c r="W23" t="s">
-        <v>1261</v>
+        <v>1306</v>
       </c>
       <c r="X23" t="n">
-        <v>3.2</v>
+        <v>27.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.3</v>
+        <v>25.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.0</v>
+        <v>29.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>1271</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>1182</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>1299</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="AI23" t="n">
         <v>27.6</v>
       </c>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
       <c r="AJ23"/>
       <c r="AK23"/>
       <c r="AL23"/>
       <c r="AM23"/>
       <c r="AN23"/>
-      <c r="AO23"/>
-      <c r="AP23"/>
-      <c r="AQ23"/>
-      <c r="AR23"/>
-      <c r="AS23"/>
-      <c r="AT23"/>
-      <c r="AU23"/>
-      <c r="AV23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -47785,54 +47217,30 @@
         <v>228</v>
       </c>
       <c r="X24" t="n">
-        <v>7.3</v>
+        <v>33.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.1</v>
+        <v>30.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.5</v>
+        <v>33.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="AI24" t="n">
         <v>33.5</v>
       </c>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
       <c r="AJ24"/>
       <c r="AK24"/>
       <c r="AL24"/>
       <c r="AM24"/>
       <c r="AN24"/>
-      <c r="AO24"/>
-      <c r="AP24"/>
-      <c r="AQ24"/>
-      <c r="AR24"/>
-      <c r="AS24"/>
-      <c r="AT24"/>
-      <c r="AU24"/>
-      <c r="AV24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -47840,13 +47248,13 @@
       </c>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="D25" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="E25" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="F25" t="n">
         <v>16.9</v>
@@ -47891,70 +47299,46 @@
         <v>3.7</v>
       </c>
       <c r="T25" t="s">
-        <v>241</v>
+        <v>1264</v>
       </c>
       <c r="U25" t="s">
-        <v>227</v>
+        <v>1237</v>
       </c>
       <c r="V25" t="s">
-        <v>227</v>
+        <v>1292</v>
       </c>
       <c r="W25" t="s">
-        <v>234</v>
+        <v>1292</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0</v>
+        <v>23.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.9</v>
+        <v>23.9</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0</v>
+        <v>24.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>1272</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>1245</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>1300</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>1300</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="AI25" t="n">
         <v>24.9</v>
       </c>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
       <c r="AJ25"/>
       <c r="AK25"/>
       <c r="AL25"/>
       <c r="AM25"/>
       <c r="AN25"/>
-      <c r="AO25"/>
-      <c r="AP25"/>
-      <c r="AQ25"/>
-      <c r="AR25"/>
-      <c r="AS25"/>
-      <c r="AT25"/>
-      <c r="AU25"/>
-      <c r="AV25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="B26"/>
       <c r="C26" t="s">
@@ -48004,59 +47388,43 @@
       <c r="Y26"/>
       <c r="Z26"/>
       <c r="AA26"/>
-      <c r="AB26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF26"/>
-      <c r="AG26"/>
-      <c r="AH26"/>
-      <c r="AI26"/>
+      <c r="AB26" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>26.5</v>
+      </c>
       <c r="AJ26" t="n">
-        <v>28.0</v>
+        <v>29.1</v>
       </c>
       <c r="AK26" t="n">
-        <v>30.3</v>
+        <v>31.3</v>
       </c>
       <c r="AL26" t="n">
-        <v>37.9</v>
+        <v>30.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>27.6</v>
+        <v>25.8</v>
       </c>
       <c r="AN26" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="AV26" t="n">
         <v>31.2</v>
       </c>
     </row>
@@ -48068,13 +47436,13 @@
         <v>8.98994555256683</v>
       </c>
       <c r="C27" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="D27" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="E27" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="F27" t="n">
         <v>12.9</v>
@@ -48126,59 +47494,43 @@
       <c r="Y27"/>
       <c r="Z27"/>
       <c r="AA27"/>
-      <c r="AB27" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF27"/>
-      <c r="AG27"/>
-      <c r="AH27"/>
-      <c r="AI27"/>
+      <c r="AB27" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>16.5</v>
+      </c>
       <c r="AJ27" t="n">
-        <v>19.7</v>
+        <v>14.2</v>
       </c>
       <c r="AK27" t="n">
-        <v>25.1</v>
+        <v>25.7</v>
       </c>
       <c r="AL27" t="n">
-        <v>46.2</v>
+        <v>26.9</v>
       </c>
       <c r="AM27" t="n">
-        <v>24.5</v>
+        <v>16.8</v>
       </c>
       <c r="AN27" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="AV27" t="n">
         <v>34.7</v>
       </c>
     </row>
@@ -48188,13 +47540,13 @@
       </c>
       <c r="B28"/>
       <c r="C28" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="D28" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="E28" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="F28" t="n">
         <v>15.5</v>
@@ -48215,7 +47567,7 @@
         <v>12.6</v>
       </c>
       <c r="L28" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="M28" t="s">
         <v>241</v>
@@ -48224,7 +47576,7 @@
         <v>239</v>
       </c>
       <c r="O28" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="P28" t="n">
         <v>1.3</v>
@@ -48239,66 +47591,42 @@
         <v>10.4</v>
       </c>
       <c r="T28" t="s">
-        <v>1235</v>
+        <v>1243</v>
       </c>
       <c r="U28" t="s">
-        <v>241</v>
+        <v>1260</v>
       </c>
       <c r="V28" t="s">
-        <v>239</v>
+        <v>660</v>
       </c>
       <c r="W28" t="s">
-        <v>1235</v>
+        <v>459</v>
       </c>
       <c r="X28" t="n">
-        <v>1.3</v>
+        <v>26.7</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.1</v>
+        <v>27.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>4.2</v>
+        <v>28.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>1251</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>1268</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>660</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>459</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="AI28" t="n">
         <v>30.7</v>
       </c>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
       <c r="AJ28"/>
       <c r="AK28"/>
       <c r="AL28"/>
       <c r="AM28"/>
       <c r="AN28"/>
-      <c r="AO28"/>
-      <c r="AP28"/>
-      <c r="AQ28"/>
-      <c r="AR28"/>
-      <c r="AS28"/>
-      <c r="AT28"/>
-      <c r="AU28"/>
-      <c r="AV28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -48354,59 +47682,43 @@
       <c r="Y29"/>
       <c r="Z29"/>
       <c r="AA29"/>
-      <c r="AB29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF29"/>
-      <c r="AG29"/>
-      <c r="AH29"/>
-      <c r="AI29"/>
+      <c r="AB29" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>34.4</v>
+      </c>
       <c r="AJ29" t="n">
-        <v>33.3</v>
+        <v>23.4</v>
       </c>
       <c r="AK29" t="n">
-        <v>20.2</v>
+        <v>27.2</v>
       </c>
       <c r="AL29" t="n">
-        <v>43.2</v>
+        <v>41.2</v>
       </c>
       <c r="AM29" t="n">
-        <v>28.3</v>
+        <v>35.1</v>
       </c>
       <c r="AN29" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="AV29" t="n">
         <v>32.2</v>
       </c>
     </row>
@@ -48464,59 +47776,43 @@
       <c r="Y30"/>
       <c r="Z30"/>
       <c r="AA30"/>
-      <c r="AB30" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF30"/>
-      <c r="AG30"/>
-      <c r="AH30"/>
-      <c r="AI30"/>
+      <c r="AB30" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>22.6</v>
+      </c>
       <c r="AJ30" t="n">
-        <v>27.4</v>
+        <v>29.6</v>
       </c>
       <c r="AK30" t="n">
-        <v>22.8</v>
+        <v>31.3</v>
       </c>
       <c r="AL30" t="n">
-        <v>36.1</v>
+        <v>23.8</v>
       </c>
       <c r="AM30" t="n">
-        <v>25.9</v>
+        <v>20.0</v>
       </c>
       <c r="AN30" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="AV30" t="n">
         <v>29.1</v>
       </c>
     </row>
@@ -48526,13 +47822,13 @@
       </c>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="D31" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="E31" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="F31" t="n">
         <v>11.1</v>
@@ -48562,7 +47858,7 @@
         <v>241</v>
       </c>
       <c r="O31" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="P31" t="n">
         <v>0.0</v>
@@ -48577,66 +47873,42 @@
         <v>3.6</v>
       </c>
       <c r="T31" t="s">
-        <v>241</v>
+        <v>1265</v>
       </c>
       <c r="U31" t="s">
-        <v>241</v>
+        <v>1184</v>
       </c>
       <c r="V31" t="s">
-        <v>241</v>
+        <v>1293</v>
       </c>
       <c r="W31" t="s">
-        <v>1245</v>
+        <v>1307</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0</v>
+        <v>30.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.7</v>
+        <v>31.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0</v>
+        <v>29.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>1273</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>1301</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>1315</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="AI31" t="n">
         <v>36.7</v>
       </c>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
       <c r="AJ31"/>
       <c r="AK31"/>
       <c r="AL31"/>
       <c r="AM31"/>
       <c r="AN31"/>
-      <c r="AO31"/>
-      <c r="AP31"/>
-      <c r="AQ31"/>
-      <c r="AR31"/>
-      <c r="AS31"/>
-      <c r="AT31"/>
-      <c r="AU31"/>
-      <c r="AV31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -48646,13 +47918,13 @@
         <v>8.811615075636976</v>
       </c>
       <c r="C32" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="D32" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="E32" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="F32" t="n">
         <v>12.8</v>
@@ -48676,13 +47948,13 @@
         <v>231</v>
       </c>
       <c r="M32" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="N32" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="O32" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="P32" t="n">
         <v>2.7</v>
@@ -48697,90 +47969,66 @@
         <v>4.8</v>
       </c>
       <c r="T32" t="s">
-        <v>231</v>
+        <v>1266</v>
       </c>
       <c r="U32" t="s">
-        <v>1252</v>
+        <v>1275</v>
       </c>
       <c r="V32" t="s">
-        <v>1240</v>
+        <v>1294</v>
       </c>
       <c r="W32" t="s">
-        <v>1262</v>
+        <v>1291</v>
       </c>
       <c r="X32" t="n">
-        <v>2.7</v>
+        <v>27.8</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.8</v>
+        <v>27.3</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.8</v>
+        <v>28.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>1274</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>1283</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>1302</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>1299</v>
+        <v>29.9</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>31.2</v>
       </c>
       <c r="AF32" t="n">
-        <v>27.8</v>
+        <v>36.8</v>
       </c>
       <c r="AG32" t="n">
-        <v>27.3</v>
+        <v>32.8</v>
       </c>
       <c r="AH32" t="n">
-        <v>28.5</v>
+        <v>30.6</v>
       </c>
       <c r="AI32" t="n">
-        <v>29.9</v>
+        <v>25.8</v>
       </c>
       <c r="AJ32" t="n">
-        <v>28.1</v>
+        <v>36.1</v>
       </c>
       <c r="AK32" t="n">
-        <v>22.6</v>
+        <v>33.0</v>
       </c>
       <c r="AL32" t="n">
-        <v>36.3</v>
+        <v>33.0</v>
       </c>
       <c r="AM32" t="n">
-        <v>31.2</v>
+        <v>30.4</v>
       </c>
       <c r="AN32" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="AV32" t="n">
         <v>33.5</v>
       </c>
     </row>
@@ -48790,13 +48038,13 @@
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="D33" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="E33" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="F33" t="n">
         <v>12.3</v>
@@ -48841,66 +48089,42 @@
         <v>7.7</v>
       </c>
       <c r="T33" t="s">
-        <v>241</v>
+        <v>1267</v>
       </c>
       <c r="U33" t="s">
-        <v>241</v>
+        <v>1276</v>
       </c>
       <c r="V33" t="s">
-        <v>241</v>
+        <v>1295</v>
       </c>
       <c r="W33" t="s">
-        <v>241</v>
+        <v>1293</v>
       </c>
       <c r="X33" t="n">
-        <v>8.3</v>
+        <v>32.4</v>
       </c>
       <c r="Y33" t="n">
-        <v>7.7</v>
+        <v>31.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>1275</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>1284</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>1303</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>1301</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="AI33" t="n">
         <v>34.7</v>
       </c>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
       <c r="AJ33"/>
       <c r="AK33"/>
       <c r="AL33"/>
       <c r="AM33"/>
       <c r="AN33"/>
-      <c r="AO33"/>
-      <c r="AP33"/>
-      <c r="AQ33"/>
-      <c r="AR33"/>
-      <c r="AS33"/>
-      <c r="AT33"/>
-      <c r="AU33"/>
-      <c r="AV33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -48908,13 +48132,13 @@
       </c>
       <c r="B34"/>
       <c r="C34" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="D34" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="E34" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="F34" t="n">
         <v>10.0</v>
@@ -48941,10 +48165,10 @@
         <v>241</v>
       </c>
       <c r="N34" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="O34" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="P34" t="n">
         <v>0.0</v>
@@ -48959,66 +48183,42 @@
         <v>5.9</v>
       </c>
       <c r="T34" t="s">
-        <v>241</v>
+        <v>1196</v>
       </c>
       <c r="U34" t="s">
-        <v>241</v>
+        <v>1277</v>
       </c>
       <c r="V34" t="s">
-        <v>1258</v>
+        <v>1296</v>
       </c>
       <c r="W34" t="s">
-        <v>1258</v>
+        <v>1308</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0</v>
+        <v>24.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0</v>
+        <v>26.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0</v>
+        <v>27.7</v>
       </c>
       <c r="AA34" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>1204</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>1285</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>1304</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="AI34" t="n">
         <v>36.9</v>
       </c>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
       <c r="AJ34"/>
       <c r="AK34"/>
       <c r="AL34"/>
       <c r="AM34"/>
       <c r="AN34"/>
-      <c r="AO34"/>
-      <c r="AP34"/>
-      <c r="AQ34"/>
-      <c r="AR34"/>
-      <c r="AS34"/>
-      <c r="AT34"/>
-      <c r="AU34"/>
-      <c r="AV34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -49028,13 +48228,13 @@
         <v>8.77065238215258</v>
       </c>
       <c r="C35" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="D35" t="s">
         <v>658</v>
       </c>
       <c r="E35" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="F35" t="n">
         <v>12.8</v>
@@ -49086,59 +48286,43 @@
       <c r="Y35"/>
       <c r="Z35"/>
       <c r="AA35"/>
-      <c r="AB35" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
+      <c r="AB35" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>27.1</v>
+      </c>
       <c r="AJ35" t="n">
-        <v>29.9</v>
+        <v>38.8</v>
       </c>
       <c r="AK35" t="n">
-        <v>22.1</v>
+        <v>33.7</v>
       </c>
       <c r="AL35" t="n">
-        <v>34.8</v>
+        <v>33.6</v>
       </c>
       <c r="AM35" t="n">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
       <c r="AN35" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="AV35" t="n">
         <v>33.4</v>
       </c>
     </row>
@@ -49160,55 +48344,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J1" t="s">
         <v>1317</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>1318</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>1319</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>1320</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>1321</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>1322</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>1323</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>1324</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>1325</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="2">
